--- a/Session7_Ta/EXE6_input.xlsx
+++ b/Session7_Ta/EXE6_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alessandro\Desktop\CHEM ENG - ORGANICA\22_23_2ndSEM\ESE5_RICICLO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sina\Documents\GitHub\Process-of-Organic-Industry--Spring-2024-\Session7_Ta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8E43E4-7FC9-4F35-ADC3-C16D2C91C8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACD31D6-1C25-4777-B07A-C02041018C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8B4CFB3B-6E69-415F-A796-98EB67215936}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{8B4CFB3B-6E69-415F-A796-98EB67215936}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>F0</t>
   </si>
@@ -109,13 +109,52 @@
   </si>
   <si>
     <t>PROCESSES OF THE ORGANIC CHEMICAL INDUSTRY  - TUTORIAL 5</t>
+  </si>
+  <si>
+    <t>MATERIAL BALANCE</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>R'</t>
+  </si>
+  <si>
+    <t>FA1</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T (K)</t>
+  </si>
+  <si>
+    <t>REC FRAC</t>
+  </si>
+  <si>
+    <t>OV CO Conv</t>
+  </si>
+  <si>
+    <t>eq1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -- GS in REC fraction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,8 +192,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,8 +220,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -204,11 +268,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -235,9 +315,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -549,18 +644,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D9704C-37BA-45CD-A2BD-B1128D15BA11}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>24</v>
       </c>
@@ -571,7 +667,7 @@
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" s="8" t="s">
         <v>0</v>
       </c>
@@ -596,7 +692,7 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
@@ -629,7 +725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -663,7 +759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
@@ -696,7 +792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
@@ -729,7 +825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
@@ -762,7 +858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
@@ -795,7 +891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
@@ -818,7 +914,7 @@
         <v>-4.3115999999999999E-9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>20</v>
       </c>
@@ -832,7 +928,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>22</v>
       </c>
@@ -846,11 +942,323 @@
         <v>0.98</v>
       </c>
     </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="13"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="3">
+        <v>148.5651089461</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+      <c r="E19" s="16">
+        <f xml:space="preserve"> C19+D19</f>
+        <v>148.5651089461</v>
+      </c>
+      <c r="F19" s="12">
+        <f>M19</f>
+        <v>198.08681193005228</v>
+      </c>
+      <c r="G19" s="12">
+        <f>E19/(1-$C$29*(1-$C$13))</f>
+        <v>346.65192087615225</v>
+      </c>
+      <c r="H19" s="12">
+        <f>G19*(1-$C$13)</f>
+        <v>201.05811410816833</v>
+      </c>
+      <c r="I19" s="12">
+        <f>H19</f>
+        <v>201.05811410816833</v>
+      </c>
+      <c r="J19" s="12">
+        <f>H19</f>
+        <v>201.05811410816833</v>
+      </c>
+      <c r="K19" s="12">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="12">
+        <f>J19-K19</f>
+        <v>201.05811410816833</v>
+      </c>
+      <c r="M19" s="12">
+        <f>$C$29*L19</f>
+        <v>198.08681193005228</v>
+      </c>
+      <c r="N19" s="12">
+        <f>L19-M19</f>
+        <v>2.9713021781160478</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3">
+        <f>75.4233392836</f>
+        <v>75.423339283600001</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="16">
+        <f t="shared" ref="E20:E25" si="0" xml:space="preserve"> C20+D20</f>
+        <v>75.423339283600001</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="3">
+        <v>696.71788031999995</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0</v>
+      </c>
+      <c r="E21" s="16">
+        <f t="shared" si="0"/>
+        <v>696.71788031999995</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="3">
+        <v>24.788823020500001</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+      <c r="E22" s="16">
+        <f t="shared" si="0"/>
+        <v>24.788823020500001</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0</v>
+      </c>
+      <c r="E23" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1.7690102429999999</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0</v>
+      </c>
+      <c r="E24" s="16">
+        <f t="shared" si="0"/>
+        <v>1.7690102429999999</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3.1706106663</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0</v>
+      </c>
+      <c r="E25" s="16">
+        <f t="shared" si="0"/>
+        <v>3.1706106663</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="12">
+        <f>K4</f>
+        <v>823.15</v>
+      </c>
+      <c r="D27" s="12">
+        <f>K5</f>
+        <v>823.15</v>
+      </c>
+      <c r="E27" s="12">
+        <f>K4</f>
+        <v>823.15</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12">
+        <f>K6</f>
+        <v>518.15</v>
+      </c>
+      <c r="H27" s="12">
+        <f>K7</f>
+        <v>537.15</v>
+      </c>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12">
+        <f>K8</f>
+        <v>383.15</v>
+      </c>
+      <c r="K27" s="12">
+        <f>K9</f>
+        <v>313.14999999999998</v>
+      </c>
+      <c r="L27" s="12">
+        <f>K9</f>
+        <v>313.14999999999998</v>
+      </c>
+      <c r="M27" s="12">
+        <f>K9</f>
+        <v>313.14999999999998</v>
+      </c>
+      <c r="N27" s="12">
+        <f>K9</f>
+        <v>313.14999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="15">
+        <v>0.98522167488093759</v>
+      </c>
+      <c r="E29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29">
+        <f>1-N19/(C19+D19)</f>
+        <v>0.98000000000542487</v>
+      </c>
+      <c r="H29" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29">
+        <f>F29-F13</f>
+        <v>5.4248827652259024E-12</v>
+      </c>
+      <c r="J29" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="J3:L3"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Session7_Ta/EXE6_input.xlsx
+++ b/Session7_Ta/EXE6_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sina\Documents\GitHub\Process-of-Organic-Industry--Spring-2024-\Session7_Ta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACD31D6-1C25-4777-B07A-C02041018C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C07788F-5015-4564-941E-1E4FC5FEC1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{8B4CFB3B-6E69-415F-A796-98EB67215936}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>F0</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t xml:space="preserve"> -- GS in REC fraction</t>
+  </si>
+  <si>
+    <t>lambda M</t>
+  </si>
+  <si>
+    <t>lambda R</t>
   </si>
 </sst>
 </file>
@@ -288,7 +294,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -327,6 +333,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -644,16 +653,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D9704C-37BA-45CD-A2BD-B1128D15BA11}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -1098,15 +1108,42 @@
         <f t="shared" si="0"/>
         <v>24.788823020500001</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
+      <c r="F22" s="12">
+        <f>M22</f>
+        <v>1652.5882018309262</v>
+      </c>
+      <c r="G22" s="12">
+        <f xml:space="preserve"> C22/(1-$C$29)</f>
+        <v>1677.3770248514263</v>
+      </c>
+      <c r="H22" s="12">
+        <f>G22</f>
+        <v>1677.3770248514263</v>
+      </c>
+      <c r="I22" s="12">
+        <f>H22</f>
+        <v>1677.3770248514263</v>
+      </c>
+      <c r="J22" s="12">
+        <f>I22</f>
+        <v>1677.3770248514263</v>
+      </c>
+      <c r="K22" s="12">
+        <f>J22*D7</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="12">
+        <f>J22-K22</f>
+        <v>1677.3770248514263</v>
+      </c>
+      <c r="M22" s="12">
+        <f>L22*$C$29</f>
+        <v>1652.5882018309262</v>
+      </c>
+      <c r="N22" s="12">
+        <f>L22-M22</f>
+        <v>24.788823020500104</v>
+      </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
@@ -1170,15 +1207,42 @@
         <f t="shared" si="0"/>
         <v>3.1706106663</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
+      <c r="F25" s="12">
+        <f>M25</f>
+        <v>211.37404447938104</v>
+      </c>
+      <c r="G25" s="12">
+        <f>E25/(1-$C$29)</f>
+        <v>214.54465514568105</v>
+      </c>
+      <c r="H25" s="12">
+        <f>G25</f>
+        <v>214.54465514568105</v>
+      </c>
+      <c r="I25" s="12">
+        <f>H25</f>
+        <v>214.54465514568105</v>
+      </c>
+      <c r="J25" s="12">
+        <f>I25</f>
+        <v>214.54465514568105</v>
+      </c>
+      <c r="K25" s="12">
+        <f>J25*D10</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="12">
+        <f>J25-K25</f>
+        <v>214.54465514568105</v>
+      </c>
+      <c r="M25" s="12">
+        <f>L25*$C$29</f>
+        <v>211.37404447938104</v>
+      </c>
+      <c r="N25" s="12">
+        <f>L25-M25</f>
+        <v>3.1706106663000071</v>
+      </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
@@ -1250,6 +1314,22 @@
       </c>
       <c r="J29" t="s">
         <v>37</v>
+      </c>
+      <c r="M29" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N29" s="12">
+        <f>-G23+F12*(G23+G20+G19)</f>
+        <v>103.99557626284567</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M30" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="N30" s="12">
+        <f>N29-G19*C13</f>
+        <v>-41.598230505138275</v>
       </c>
     </row>
   </sheetData>

--- a/Session7_Ta/EXE6_input.xlsx
+++ b/Session7_Ta/EXE6_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sina\Documents\GitHub\Process-of-Organic-Industry--Spring-2024-\Session7_Ta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C07788F-5015-4564-941E-1E4FC5FEC1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AD98D3-7FE7-489B-956E-DA6B3151007A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{8B4CFB3B-6E69-415F-A796-98EB67215936}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>F0</t>
   </si>
@@ -154,6 +154,24 @@
   </si>
   <si>
     <t>lambda R</t>
+  </si>
+  <si>
+    <t>FM CO2 = 60</t>
+  </si>
+  <si>
+    <t>FF H2 = 3000</t>
+  </si>
+  <si>
+    <t>FF MeOH = 30</t>
+  </si>
+  <si>
+    <t>First Guess</t>
+  </si>
+  <si>
+    <t>nu M</t>
+  </si>
+  <si>
+    <t>nu R</t>
   </si>
 </sst>
 </file>
@@ -294,7 +312,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -324,6 +342,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -337,6 +358,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -653,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D9704C-37BA-45CD-A2BD-B1128D15BA11}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,6 +964,10 @@
       <c r="F12" s="4">
         <v>0.3</v>
       </c>
+      <c r="J12" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
@@ -951,14 +982,30 @@
       <c r="F13" s="4">
         <v>0.98</v>
       </c>
+      <c r="J13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J15" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="13"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="13"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C16" s="14"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C18" s="8" t="s">
         <v>0</v>
       </c>
@@ -995,8 +1042,14 @@
       <c r="N18" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="P18" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
@@ -1006,7 +1059,7 @@
       <c r="D19" s="12">
         <v>0</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="17">
         <f xml:space="preserve"> C19+D19</f>
         <v>148.5651089461</v>
       </c>
@@ -1046,8 +1099,14 @@
         <f>L19-M19</f>
         <v>2.9713021781160478</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="12">
+        <v>-1</v>
+      </c>
+      <c r="P19" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1055,13 +1114,18 @@
         <f>75.4233392836</f>
         <v>75.423339283600001</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="16">
+      <c r="D20" s="18">
+        <v>60</v>
+      </c>
+      <c r="E20" s="17">
         <f t="shared" ref="E20:E25" si="0" xml:space="preserve"> C20+D20</f>
-        <v>75.423339283600001</v>
+        <v>135.4233392836</v>
       </c>
       <c r="F20" s="12"/>
-      <c r="G20" s="17"/>
+      <c r="G20" s="18">
+        <f>(G21-G19*C12)/(C12+1)</f>
+        <v>490.0110593428858</v>
+      </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -1069,8 +1133,14 @@
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="12">
+        <v>0</v>
+      </c>
+      <c r="P20" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1080,12 +1150,14 @@
       <c r="D21" s="12">
         <v>0</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="17">
         <f t="shared" si="0"/>
         <v>696.71788031999995</v>
       </c>
       <c r="F21" s="12"/>
-      <c r="G21" s="17"/>
+      <c r="G21" s="18">
+        <v>3000</v>
+      </c>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -1093,8 +1165,14 @@
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O21" s="12">
+        <v>-2</v>
+      </c>
+      <c r="P21" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
@@ -1104,7 +1182,7 @@
       <c r="D22" s="12">
         <v>0</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="17">
         <f t="shared" si="0"/>
         <v>24.788823020500001</v>
       </c>
@@ -1144,8 +1222,14 @@
         <f>L22-M22</f>
         <v>24.788823020500104</v>
       </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="12">
+        <v>0</v>
+      </c>
+      <c r="P22" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>15</v>
       </c>
@@ -1155,12 +1239,14 @@
       <c r="D23" s="12">
         <v>0</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F23" s="12"/>
-      <c r="G23" s="17"/>
+      <c r="G23" s="18">
+        <v>30</v>
+      </c>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
@@ -1168,8 +1254,14 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O23" s="12">
+        <v>1</v>
+      </c>
+      <c r="P23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>17</v>
       </c>
@@ -1179,7 +1271,7 @@
       <c r="D24" s="12">
         <v>0</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="17">
         <f t="shared" si="0"/>
         <v>1.7690102429999999</v>
       </c>
@@ -1192,8 +1284,14 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O24" s="12">
+        <v>0</v>
+      </c>
+      <c r="P24" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>19</v>
       </c>
@@ -1203,7 +1301,7 @@
       <c r="D25" s="12">
         <v>0</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="17">
         <f t="shared" si="0"/>
         <v>3.1706106663</v>
       </c>
@@ -1243,8 +1341,14 @@
         <f>L25-M25</f>
         <v>3.1706106663000071</v>
       </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O25" s="12">
+        <v>0</v>
+      </c>
+      <c r="P25" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>33</v>
       </c>
@@ -1291,11 +1395,11 @@
         <v>313.14999999999998</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="14" t="s">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="16">
         <v>0.98522167488093759</v>
       </c>
       <c r="E29" t="s">
@@ -1315,28 +1419,32 @@
       <c r="J29" t="s">
         <v>37</v>
       </c>
-      <c r="M29" s="18" t="s">
+      <c r="M29" s="19" t="s">
         <v>38</v>
       </c>
       <c r="N29" s="12">
         <f>-G23+F12*(G23+G20+G19)</f>
-        <v>103.99557626284567</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="M30" s="18" t="s">
+        <v>229.9988940657114</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M30" s="19" t="s">
         <v>39</v>
       </c>
       <c r="N30" s="12">
         <f>N29-G19*C13</f>
-        <v>-41.598230505138275</v>
+        <v>84.405087297727448</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="B16:C16"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Session7_Ta/EXE6_input.xlsx
+++ b/Session7_Ta/EXE6_input.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sina\Documents\GitHub\Process-of-Organic-Industry--Spring-2024-\Session7_Ta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AD98D3-7FE7-489B-956E-DA6B3151007A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E06C66-5108-442F-A245-14EE05DBE32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{8B4CFB3B-6E69-415F-A796-98EB67215936}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-8"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="71">
   <si>
     <t>F0</t>
   </si>
@@ -172,13 +173,88 @@
   </si>
   <si>
     <t>nu R</t>
+  </si>
+  <si>
+    <t>eq2</t>
+  </si>
+  <si>
+    <t>eq3</t>
+  </si>
+  <si>
+    <t>FFCO2 ----&gt; FMCO2</t>
+  </si>
+  <si>
+    <t>FFH2 ---&gt; FFH2</t>
+  </si>
+  <si>
+    <t>FFM ---&gt; FFM</t>
+  </si>
+  <si>
+    <t>BETA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'R/F</t>
+  </si>
+  <si>
+    <t>rec frac</t>
+  </si>
+  <si>
+    <t>ov conv</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>y inert</t>
+  </si>
+  <si>
+    <t>ENERGY BALANCE</t>
+  </si>
+  <si>
+    <t>h F0</t>
+  </si>
+  <si>
+    <t>H F0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h FM </t>
+  </si>
+  <si>
+    <t>H FM</t>
+  </si>
+  <si>
+    <t>h R'</t>
+  </si>
+  <si>
+    <t>H R'</t>
+  </si>
+  <si>
+    <t>h FF</t>
+  </si>
+  <si>
+    <t>H FF</t>
+  </si>
+  <si>
+    <t>T ref = T FA</t>
+  </si>
+  <si>
+    <t>take a first guess</t>
+  </si>
+  <si>
+    <t>J/mol</t>
+  </si>
+  <si>
+    <t>J/s</t>
+  </si>
+  <si>
+    <t>---&gt; GS in TR'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,9 +293,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -230,8 +320,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,12 +349,23 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -307,12 +416,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -345,15 +470,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -362,12 +487,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -381,6 +530,1371 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>rec fraction</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$H$33:$H$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.99999000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99999000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$I$33:$I$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.99998619066689087</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99998619066689087</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99986192382956629</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99862095201864087</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98637858149365909</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.87866108786610875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78358208955223885</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70707070707070696</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64417177914110413</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59154929577464777</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.546875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.50847457627118642</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.47511312217194568</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.44585987261146487</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.41999999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF1A-41AA-BE98-68F2CF3D6FA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>y inert</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$H$33:$H$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.99999000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99999000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$K$33:$K$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.99837229279506834</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99837229279506834</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98395797139405916</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85982167716090574</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38023714415997545</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7919438606453204E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9878604424318736E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0150854103409409E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5210016747660949E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2219421851874919E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0214210088475869E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.7759874246021909E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.6939095139882284E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.8501718749795128E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.1737824586305104E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AF1A-41AA-BE98-68F2CF3D6FA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="54493039"/>
+        <c:axId val="54489679"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="54493039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="54489679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="54489679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>OV Conversion</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="54493039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>71693</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>92177</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>604274</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>163871</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!Macro1" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B40E278-7DA6-BC0D-6EBA-F6DE833A9CD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10764274" y="3021371"/>
+          <a:ext cx="1147097" cy="655484"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>71693</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>92177</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>604274</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>163871</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!Macro1" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{330A1FFC-6E6F-43DB-BEE4-A5CF44711D7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10682543" y="2959202"/>
+          <a:ext cx="1142181" cy="643194"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>460888</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>112661</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>522339</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>81936</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!_xludf.table" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Oval 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BB72202-5DE1-E354-6584-38B9800FC55A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9309920" y="5960806"/>
+          <a:ext cx="1290484" cy="747662"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>274483</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>113482</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>10243</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>71693</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73371F9C-FA16-A2B8-9884-AF8874680362}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -680,10 +2194,1382 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D9704C-37BA-45CD-A2BD-B1128D15BA11}">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>148.5651089461</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>29.556000000000001</v>
+      </c>
+      <c r="F4" s="6">
+        <v>-6.5807000000000001E-3</v>
+      </c>
+      <c r="G4" s="6">
+        <v>2.0129999999999999E-5</v>
+      </c>
+      <c r="H4" s="6">
+        <v>-1.2226999999999999E-8</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <f>550+273.15</f>
+        <v>823.15</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <f>75.4233392836</f>
+        <v>75.423339283600001</v>
+      </c>
+      <c r="D5" s="4">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>27.437000000000001</v>
+      </c>
+      <c r="F5" s="6">
+        <v>4.2314999999999998E-2</v>
+      </c>
+      <c r="G5" s="6">
+        <v>-1.9555000000000002E-5</v>
+      </c>
+      <c r="H5" s="6">
+        <v>3.9968000000000001E-9</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="5">
+        <f>550+273.15</f>
+        <v>823.15</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3">
+        <v>696.71788031999995</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>25.399000000000001</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2.0178000000000001E-2</v>
+      </c>
+      <c r="G6" s="6">
+        <v>-3.8549E-5</v>
+      </c>
+      <c r="H6" s="6">
+        <v>3.1879999999999998E-8</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="5">
+        <f>245+273.15</f>
+        <v>518.15</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3">
+        <v>24.788823020500001</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>34.942</v>
+      </c>
+      <c r="F7" s="6">
+        <v>-3.9956999999999999E-2</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1.9184000000000001E-4</v>
+      </c>
+      <c r="H7" s="6">
+        <v>-1.5302999999999999E-7</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="5">
+        <f>264+273.15</f>
+        <v>537.15</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="E8" s="5">
+        <v>40.045999999999999</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-3.8287000000000002E-2</v>
+      </c>
+      <c r="G8" s="6">
+        <v>-2.4529E-4</v>
+      </c>
+      <c r="H8" s="6">
+        <v>-2.1679E-7</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="5">
+        <f>110+273.15</f>
+        <v>383.15</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.7690102429999999</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="E9" s="5">
+        <v>33.933</v>
+      </c>
+      <c r="F9" s="6">
+        <v>-8.4186E-3</v>
+      </c>
+      <c r="G9" s="6">
+        <v>2.9906000000000001E-5</v>
+      </c>
+      <c r="H9" s="6">
+        <v>-1.7824999999999999E-8</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="5">
+        <f>40+273.15</f>
+        <v>313.14999999999998</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3.1706106663</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>29.341999999999999</v>
+      </c>
+      <c r="F10" s="6">
+        <v>-3.5395000000000001E-3</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1.0076E-5</v>
+      </c>
+      <c r="H10" s="6">
+        <v>-4.3115999999999999E-9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.98</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J15" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="14"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="P18" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="3">
+        <v>148.5651089461</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+      <c r="E19" s="17">
+        <f xml:space="preserve"> C19+D19</f>
+        <v>148.5651089461</v>
+      </c>
+      <c r="F19" s="12">
+        <f>M19</f>
+        <v>198.08681193005228</v>
+      </c>
+      <c r="G19" s="12">
+        <f>E19/(1-$C$29*(1-$C$13))</f>
+        <v>346.65192087615225</v>
+      </c>
+      <c r="H19" s="12">
+        <f>G19*(1-$C$13)</f>
+        <v>201.05811410816833</v>
+      </c>
+      <c r="I19" s="12">
+        <f>H19</f>
+        <v>201.05811410816833</v>
+      </c>
+      <c r="J19" s="12">
+        <f>H19</f>
+        <v>201.05811410816833</v>
+      </c>
+      <c r="K19" s="12">
+        <f>I19*D4</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="12">
+        <f>J19-K19</f>
+        <v>201.05811410816833</v>
+      </c>
+      <c r="M19" s="12">
+        <f>$C$29*L19</f>
+        <v>198.08681193005228</v>
+      </c>
+      <c r="N19" s="12">
+        <f>L19-M19</f>
+        <v>2.9713021781160478</v>
+      </c>
+      <c r="O19" s="12">
+        <v>-1</v>
+      </c>
+      <c r="P19" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3">
+        <f>75.4233392836</f>
+        <v>75.423339283600001</v>
+      </c>
+      <c r="D20" s="23">
+        <v>57.704789740044859</v>
+      </c>
+      <c r="E20" s="17">
+        <f t="shared" ref="E20:E25" si="0" xml:space="preserve"> C20+D20</f>
+        <v>133.12812902364487</v>
+      </c>
+      <c r="F20" s="12">
+        <f t="shared" ref="F20:F25" si="1">M20</f>
+        <v>492.10857731340229</v>
+      </c>
+      <c r="G20" s="22">
+        <f>(G21-G19*C12)/(C12+1)</f>
+        <v>625.23670633704717</v>
+      </c>
+      <c r="H20" s="12">
+        <f>G20+$N$29*O20+$N$30*P20</f>
+        <v>504.28087427665787</v>
+      </c>
+      <c r="I20" s="12">
+        <f t="shared" ref="I20:I25" si="2">H20</f>
+        <v>504.28087427665787</v>
+      </c>
+      <c r="J20" s="12">
+        <f t="shared" ref="J20:J25" si="3">H20</f>
+        <v>504.28087427665787</v>
+      </c>
+      <c r="K20" s="12">
+        <f t="shared" ref="K20:K25" si="4">I20*D5</f>
+        <v>4.79066830562825</v>
+      </c>
+      <c r="L20" s="12">
+        <f t="shared" ref="L20:L25" si="5">J20-K20</f>
+        <v>499.49020597102964</v>
+      </c>
+      <c r="M20" s="12">
+        <f t="shared" ref="M20:M25" si="6">$C$29*L20</f>
+        <v>492.10857731340229</v>
+      </c>
+      <c r="N20" s="12">
+        <f t="shared" ref="N20:N25" si="7">L20-M20</f>
+        <v>7.3816286576273455</v>
+      </c>
+      <c r="O20" s="12">
+        <v>0</v>
+      </c>
+      <c r="P20" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="3">
+        <v>696.71788031999995</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0</v>
+      </c>
+      <c r="E21" s="17">
+        <f t="shared" si="0"/>
+        <v>696.71788031999995</v>
+      </c>
+      <c r="F21" s="12">
+        <f t="shared" si="1"/>
+        <v>2844.1847076566455</v>
+      </c>
+      <c r="G21" s="23">
+        <v>3540.9025879766455</v>
+      </c>
+      <c r="H21" s="12">
+        <f>G21+$N$29*O21+$N$30*P21</f>
+        <v>2886.8474782595099</v>
+      </c>
+      <c r="I21" s="12">
+        <f t="shared" si="2"/>
+        <v>2886.8474782595099</v>
+      </c>
+      <c r="J21" s="12">
+        <f t="shared" si="3"/>
+        <v>2886.8474782595099</v>
+      </c>
+      <c r="K21" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="12">
+        <f t="shared" si="5"/>
+        <v>2886.8474782595099</v>
+      </c>
+      <c r="M21" s="12">
+        <f t="shared" si="6"/>
+        <v>2844.1847076566455</v>
+      </c>
+      <c r="N21" s="12">
+        <f t="shared" si="7"/>
+        <v>42.662770602864384</v>
+      </c>
+      <c r="O21" s="12">
+        <v>-2</v>
+      </c>
+      <c r="P21" s="12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="3">
+        <v>24.788823020500001</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+      <c r="E22" s="17">
+        <f t="shared" si="0"/>
+        <v>24.788823020500001</v>
+      </c>
+      <c r="F22" s="12">
+        <f t="shared" si="1"/>
+        <v>1652.5882018309262</v>
+      </c>
+      <c r="G22" s="12">
+        <f xml:space="preserve"> C22/(1-$C$29)</f>
+        <v>1677.3770248514263</v>
+      </c>
+      <c r="H22" s="12">
+        <f>G22</f>
+        <v>1677.3770248514263</v>
+      </c>
+      <c r="I22" s="12">
+        <f t="shared" si="2"/>
+        <v>1677.3770248514263</v>
+      </c>
+      <c r="J22" s="12">
+        <f t="shared" si="3"/>
+        <v>1677.3770248514263</v>
+      </c>
+      <c r="K22" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="12">
+        <f t="shared" si="5"/>
+        <v>1677.3770248514263</v>
+      </c>
+      <c r="M22" s="12">
+        <f t="shared" si="6"/>
+        <v>1652.5882018309262</v>
+      </c>
+      <c r="N22" s="12">
+        <f t="shared" si="7"/>
+        <v>24.788823020500104</v>
+      </c>
+      <c r="O22" s="12">
+        <v>0</v>
+      </c>
+      <c r="P22" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0</v>
+      </c>
+      <c r="E23" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="1"/>
+        <v>35.738499059759548</v>
+      </c>
+      <c r="G23" s="23">
+        <v>35.73849905083803</v>
+      </c>
+      <c r="H23" s="12">
+        <f>G23+$N$29*O23+$N$30*P23</f>
+        <v>302.28813787921126</v>
+      </c>
+      <c r="I23" s="12">
+        <f t="shared" si="2"/>
+        <v>302.28813787921126</v>
+      </c>
+      <c r="J23" s="12">
+        <f t="shared" si="3"/>
+        <v>302.28813787921126</v>
+      </c>
+      <c r="K23" s="12">
+        <f t="shared" si="4"/>
+        <v>266.01356133370592</v>
+      </c>
+      <c r="L23" s="12">
+        <f t="shared" si="5"/>
+        <v>36.27457654550534</v>
+      </c>
+      <c r="M23" s="12">
+        <f t="shared" si="6"/>
+        <v>35.738499059759548</v>
+      </c>
+      <c r="N23" s="12">
+        <f t="shared" si="7"/>
+        <v>0.53607748574579261</v>
+      </c>
+      <c r="O23" s="12">
+        <v>1</v>
+      </c>
+      <c r="P23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1.7690102429999999</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0</v>
+      </c>
+      <c r="E24" s="17">
+        <f t="shared" si="0"/>
+        <v>1.7690102429999999</v>
+      </c>
+      <c r="F24" s="12">
+        <f t="shared" si="1"/>
+        <v>6.3588001193743686</v>
+      </c>
+      <c r="G24" s="12">
+        <f>(C24+D24+$C$29*(1-D9)*(P24*N30))/(1-$C$29*(1-D9))</f>
+        <v>8.1278103623743689</v>
+      </c>
+      <c r="H24" s="12">
+        <f>G24+$N$29*O24+$N$30*P24</f>
+        <v>129.08364242276366</v>
+      </c>
+      <c r="I24" s="12">
+        <f t="shared" si="2"/>
+        <v>129.08364242276366</v>
+      </c>
+      <c r="J24" s="12">
+        <f t="shared" si="3"/>
+        <v>129.08364242276366</v>
+      </c>
+      <c r="K24" s="12">
+        <f t="shared" si="4"/>
+        <v>122.62946030162547</v>
+      </c>
+      <c r="L24" s="12">
+        <f t="shared" si="5"/>
+        <v>6.4541821211381887</v>
+      </c>
+      <c r="M24" s="12">
+        <f t="shared" si="6"/>
+        <v>6.3588001193743686</v>
+      </c>
+      <c r="N24" s="12">
+        <f t="shared" si="7"/>
+        <v>9.5382001763820057E-2</v>
+      </c>
+      <c r="O24" s="12">
+        <v>0</v>
+      </c>
+      <c r="P24" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3.1706106663</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0</v>
+      </c>
+      <c r="E25" s="17">
+        <f t="shared" si="0"/>
+        <v>3.1706106663</v>
+      </c>
+      <c r="F25" s="12">
+        <f t="shared" si="1"/>
+        <v>211.37404447938104</v>
+      </c>
+      <c r="G25" s="12">
+        <f>E25/(1-$C$29)</f>
+        <v>214.54465514568105</v>
+      </c>
+      <c r="H25" s="12">
+        <f>G25</f>
+        <v>214.54465514568105</v>
+      </c>
+      <c r="I25" s="12">
+        <f t="shared" si="2"/>
+        <v>214.54465514568105</v>
+      </c>
+      <c r="J25" s="12">
+        <f t="shared" si="3"/>
+        <v>214.54465514568105</v>
+      </c>
+      <c r="K25" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="12">
+        <f t="shared" si="5"/>
+        <v>214.54465514568105</v>
+      </c>
+      <c r="M25" s="12">
+        <f t="shared" si="6"/>
+        <v>211.37404447938104</v>
+      </c>
+      <c r="N25" s="12">
+        <f t="shared" si="7"/>
+        <v>3.1706106663000071</v>
+      </c>
+      <c r="O25" s="12">
+        <v>0</v>
+      </c>
+      <c r="P25" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="12">
+        <f>K4</f>
+        <v>823.15</v>
+      </c>
+      <c r="D27" s="12">
+        <f>K5</f>
+        <v>823.15</v>
+      </c>
+      <c r="E27" s="12">
+        <f>K4</f>
+        <v>823.15</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12">
+        <f>K6</f>
+        <v>518.15</v>
+      </c>
+      <c r="H27" s="12">
+        <f>K7</f>
+        <v>537.15</v>
+      </c>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12">
+        <f>K8</f>
+        <v>383.15</v>
+      </c>
+      <c r="K27" s="12">
+        <f>K9</f>
+        <v>313.14999999999998</v>
+      </c>
+      <c r="L27" s="12">
+        <f>K9</f>
+        <v>313.14999999999998</v>
+      </c>
+      <c r="M27" s="12">
+        <f>K9</f>
+        <v>313.14999999999998</v>
+      </c>
+      <c r="N27" s="12">
+        <f>K9</f>
+        <v>313.14999999999998</v>
+      </c>
+      <c r="P27" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q27">
+        <f>C20+D20+$C$29*(1-D5)*(G20+O20*$N$29+P20*$N$30)-G20</f>
+        <v>0</v>
+      </c>
+      <c r="R27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="P28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q28">
+        <f>C21+D21+$C$29*(1-D6)*(G21+O21*$N$29+P21*$N$30)-G21</f>
+        <v>0</v>
+      </c>
+      <c r="R28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="16">
+        <v>0.98522167488093759</v>
+      </c>
+      <c r="E29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29">
+        <f>1-N19/(C19+D19)</f>
+        <v>0.98000000000542487</v>
+      </c>
+      <c r="H29" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29">
+        <f>F29-F13</f>
+        <v>5.4248827652259024E-12</v>
+      </c>
+      <c r="J29" t="s">
+        <v>37</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N29" s="12">
+        <f>-G23+F12*(G23+G20+G19)</f>
+        <v>266.54963882837325</v>
+      </c>
+      <c r="P29" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q29">
+        <f>C23+D23+$C$29*(1-D8)*(G23+O23*$N$29+P23*$N$30)-G23</f>
+        <v>8.9215319576396723E-9</v>
+      </c>
+      <c r="R29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="M30" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="N30" s="12">
+        <f>N29-G19*C13</f>
+        <v>120.9558320603893</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="24">
+        <f xml:space="preserve"> SUM(M19:M25)/SUM(E19:E25)</f>
+        <v>5.3965143778424247</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="14"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G34" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I34" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="J34" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="K34" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="L34" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="M34" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="N34" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="I35" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="J35" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="K35" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="L35" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="M35" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="N35" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="5">
+        <v>29.556000000000001</v>
+      </c>
+      <c r="D36" s="6">
+        <v>-6.5807000000000001E-3</v>
+      </c>
+      <c r="E36" s="6">
+        <v>2.0129999999999999E-5</v>
+      </c>
+      <c r="F36" s="6">
+        <v>-1.2226999999999999E-8</v>
+      </c>
+      <c r="G36" s="26">
+        <f>C36*($G$44-$G$46)+D36/2*($G$44^2-$G$46^2)+E36/3*($G$44^3-$G$46^3)+F36/4*($G$44^4-$G$46^4)</f>
+        <v>8726.54811210353</v>
+      </c>
+      <c r="H36" s="26">
+        <f>G36*C19*1000/3600</f>
+        <v>360127.93638834561</v>
+      </c>
+      <c r="I36" s="26">
+        <f>C36*($G$44-$G$46)+D36/2*($G$44^2-$G$46^2)+E36/3*($G$44^3-$G$46^3)+F36/4*($G$44^4-$G$46^4)</f>
+        <v>8726.54811210353</v>
+      </c>
+      <c r="J36" s="26">
+        <f xml:space="preserve"> I36*D19*1000/3600</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="27">
+        <f>C36*($K$44-$G$46)+D36/2*($K$44^2-$G$46^2)+E36/3*($K$44^3-$G$46^3)+F36/4*($K$44^4-$G$46^4)</f>
+        <v>-2213.357311116556</v>
+      </c>
+      <c r="L36" s="12">
+        <f>K36*F19*1000/3600</f>
+        <v>-121788.02595031985</v>
+      </c>
+      <c r="M36" s="26">
+        <f>C36*($M$44-$G$46)+D36/2*($M$44^2-$G$46^2)+E36/3*($M$44^3-$G$46^3)+F36/4*($M$44^4-$G$46^4)</f>
+        <v>-567.94778532091732</v>
+      </c>
+      <c r="N36" s="17">
+        <f>M36*G19*1000/3600</f>
+        <v>-54688.94187190348</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="5">
+        <v>27.437000000000001</v>
+      </c>
+      <c r="D37" s="6">
+        <v>4.2314999999999998E-2</v>
+      </c>
+      <c r="E37" s="6">
+        <v>-1.9555000000000002E-5</v>
+      </c>
+      <c r="F37" s="6">
+        <v>3.9968000000000001E-9</v>
+      </c>
+      <c r="G37" s="26">
+        <f t="shared" ref="G37:G42" si="8">C37*($G$44-$G$46)+D37/2*($G$44^2-$G$46^2)+E37/3*($G$44^3-$G$46^3)+F37/4*($G$44^4-$G$46^4)</f>
+        <v>13828.436018382774</v>
+      </c>
+      <c r="H37" s="26">
+        <f t="shared" ref="H37:H42" si="9">G37*C20*1000/3600</f>
+        <v>289718.56154889963</v>
+      </c>
+      <c r="I37" s="26">
+        <f t="shared" ref="I37:I42" si="10">C37*($G$44-$G$46)+D37/2*($G$44^2-$G$46^2)+E37/3*($G$44^3-$G$46^3)+F37/4*($G$44^4-$G$46^4)</f>
+        <v>13828.436018382774</v>
+      </c>
+      <c r="J37" s="26">
+        <f t="shared" ref="J37:J42" si="11" xml:space="preserve"> I37*D20*1000/3600</f>
+        <v>221657.49802067806</v>
+      </c>
+      <c r="K37" s="27">
+        <f t="shared" ref="K37:K42" si="12">C37*($K$44-$G$46)+D37/2*($K$44^2-$G$46^2)+E37/3*($K$44^3-$G$46^3)+F37/4*($K$44^4-$G$46^4)</f>
+        <v>-3286.0406483846346</v>
+      </c>
+      <c r="L37" s="12">
+        <f t="shared" ref="L37:L42" si="13">K37*F20*1000/3600</f>
+        <v>-449191.33013071457</v>
+      </c>
+      <c r="M37" s="26">
+        <f t="shared" ref="M37:M42" si="14">C37*($M$44-$G$46)+D37/2*($M$44^2-$G$46^2)+E37/3*($M$44^3-$G$46^3)+F37/4*($M$44^4-$G$46^4)</f>
+        <v>-853.23048071455867</v>
+      </c>
+      <c r="N37" s="17">
+        <f t="shared" ref="N37:N42" si="15">M37*G20*1000/3600</f>
+        <v>-148186.39319676283</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="5">
+        <v>25.399000000000001</v>
+      </c>
+      <c r="D38" s="6">
+        <v>2.0178000000000001E-2</v>
+      </c>
+      <c r="E38" s="6">
+        <v>-3.8549E-5</v>
+      </c>
+      <c r="F38" s="6">
+        <v>3.1879999999999998E-8</v>
+      </c>
+      <c r="G38" s="26">
+        <f t="shared" si="8"/>
+        <v>9009.4312895725507</v>
+      </c>
+      <c r="H38" s="26">
+        <f t="shared" si="9"/>
+        <v>1743619.9641554642</v>
+      </c>
+      <c r="I38" s="26">
+        <f t="shared" si="10"/>
+        <v>9009.4312895725507</v>
+      </c>
+      <c r="J38" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="27">
+        <f t="shared" si="12"/>
+        <v>-2218.5164432875777</v>
+      </c>
+      <c r="L38" s="12">
+        <f t="shared" si="13"/>
+        <v>-1752741.8171342611</v>
+      </c>
+      <c r="M38" s="26">
+        <f t="shared" si="14"/>
+        <v>-569.94344853782002</v>
+      </c>
+      <c r="N38" s="17">
+        <f t="shared" si="15"/>
+        <v>-560587.28664663923</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="5">
+        <v>34.942</v>
+      </c>
+      <c r="D39" s="6">
+        <v>-3.9956999999999999E-2</v>
+      </c>
+      <c r="E39" s="6">
+        <v>1.9184000000000001E-4</v>
+      </c>
+      <c r="F39" s="6">
+        <v>-1.5302999999999999E-7</v>
+      </c>
+      <c r="G39" s="26">
+        <f t="shared" si="8"/>
+        <v>13596.745599552174</v>
+      </c>
+      <c r="H39" s="26">
+        <f t="shared" si="9"/>
+        <v>93624.25564501695</v>
+      </c>
+      <c r="I39" s="26">
+        <f t="shared" si="10"/>
+        <v>13596.745599552174</v>
+      </c>
+      <c r="J39" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="27">
+        <f t="shared" si="12"/>
+        <v>-3254.6671426786088</v>
+      </c>
+      <c r="L39" s="12">
+        <f t="shared" si="13"/>
+        <v>-1494062.3669104001</v>
+      </c>
+      <c r="M39" s="26">
+        <f t="shared" si="14"/>
+        <v>-850.95828068325704</v>
+      </c>
+      <c r="N39" s="17">
+        <f t="shared" si="15"/>
+        <v>-396493.85253476852</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="5">
+        <v>40.045999999999999</v>
+      </c>
+      <c r="D40" s="6">
+        <v>-3.8287000000000002E-2</v>
+      </c>
+      <c r="E40" s="6">
+        <v>-2.4529E-4</v>
+      </c>
+      <c r="F40" s="6">
+        <v>-2.1679E-7</v>
+      </c>
+      <c r="G40" s="26">
+        <f t="shared" si="8"/>
+        <v>-49296.405535679449</v>
+      </c>
+      <c r="H40" s="26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="26">
+        <f t="shared" si="10"/>
+        <v>-49296.405535679449</v>
+      </c>
+      <c r="J40" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="27">
+        <f t="shared" si="12"/>
+        <v>5038.5907199454832</v>
+      </c>
+      <c r="L40" s="12">
+        <f t="shared" si="13"/>
+        <v>50019.908252023568</v>
+      </c>
+      <c r="M40" s="26">
+        <f t="shared" si="14"/>
+        <v>1525.9614998931861</v>
+      </c>
+      <c r="N40" s="17">
+        <f t="shared" si="15"/>
+        <v>15148.770448763335</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="5">
+        <v>33.933</v>
+      </c>
+      <c r="D41" s="6">
+        <v>-8.4186E-3</v>
+      </c>
+      <c r="E41" s="6">
+        <v>2.9906000000000001E-5</v>
+      </c>
+      <c r="F41" s="6">
+        <v>-1.7824999999999999E-8</v>
+      </c>
+      <c r="G41" s="26">
+        <f t="shared" si="8"/>
+        <v>10407.310377123733</v>
+      </c>
+      <c r="H41" s="26">
+        <f t="shared" si="9"/>
+        <v>5114.0662942255767</v>
+      </c>
+      <c r="I41" s="26">
+        <f t="shared" si="10"/>
+        <v>10407.310377123733</v>
+      </c>
+      <c r="J41" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="27">
+        <f t="shared" si="12"/>
+        <v>-2600.1751570384972</v>
+      </c>
+      <c r="L41" s="12">
+        <f t="shared" si="13"/>
+        <v>-4592.7761386029615</v>
+      </c>
+      <c r="M41" s="26">
+        <f t="shared" si="14"/>
+        <v>-668.77438983996183</v>
+      </c>
+      <c r="N41" s="17">
+        <f t="shared" si="15"/>
+        <v>-1509.9087266199547</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="5">
+        <v>29.341999999999999</v>
+      </c>
+      <c r="D42" s="6">
+        <v>-3.5395000000000001E-3</v>
+      </c>
+      <c r="E42" s="6">
+        <v>1.0076E-5</v>
+      </c>
+      <c r="F42" s="6">
+        <v>-4.3115999999999999E-9</v>
+      </c>
+      <c r="G42" s="26">
+        <f t="shared" si="8"/>
+        <v>8650.9047798411557</v>
+      </c>
+      <c r="H42" s="26">
+        <f t="shared" si="9"/>
+        <v>7619.0697133638951</v>
+      </c>
+      <c r="I42" s="26">
+        <f t="shared" si="10"/>
+        <v>8650.9047798411557</v>
+      </c>
+      <c r="J42" s="26">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="27">
+        <f t="shared" si="12"/>
+        <v>-2197.252795098329</v>
+      </c>
+      <c r="L42" s="12">
+        <f t="shared" si="13"/>
+        <v>-129011.72501209957</v>
+      </c>
+      <c r="M42" s="26">
+        <f t="shared" si="14"/>
+        <v>-563.2813707132068</v>
+      </c>
+      <c r="N42" s="17">
+        <f t="shared" si="15"/>
+        <v>-33569.168730458747</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G44" s="12">
+        <v>823.15</v>
+      </c>
+      <c r="I44" s="12">
+        <v>823.15</v>
+      </c>
+      <c r="K44" s="16">
+        <v>462.80265594843968</v>
+      </c>
+      <c r="M44" s="12">
+        <v>518.15</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>66</v>
+      </c>
+      <c r="G46">
+        <v>537.15</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="J47" t="s">
+        <v>36</v>
+      </c>
+      <c r="K47" s="29">
+        <f>SUM(H36:H42)+SUM(J36:J42)+SUM(L36:L42)-SUM(N36:N42)</f>
+        <v>8.8475644588470459E-9</v>
+      </c>
+      <c r="L47" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396921D4-C53B-419B-AEB5-5ACF973E6955}">
+  <dimension ref="A1:R47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,7 +3891,7 @@
       </c>
       <c r="C16" s="14"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C18" s="8" t="s">
         <v>0</v>
       </c>
@@ -1049,7 +3935,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
@@ -1065,39 +3951,39 @@
       </c>
       <c r="F19" s="12">
         <f>M19</f>
-        <v>198.08681193005228</v>
+        <v>205.15645619919093</v>
       </c>
       <c r="G19" s="12">
         <f>E19/(1-$C$29*(1-$C$13))</f>
-        <v>346.65192087615225</v>
+        <v>353.72156514529092</v>
       </c>
       <c r="H19" s="12">
         <f>G19*(1-$C$13)</f>
-        <v>201.05811410816833</v>
+        <v>205.15850778426875</v>
       </c>
       <c r="I19" s="12">
         <f>H19</f>
-        <v>201.05811410816833</v>
+        <v>205.15850778426875</v>
       </c>
       <c r="J19" s="12">
         <f>H19</f>
-        <v>201.05811410816833</v>
+        <v>205.15850778426875</v>
       </c>
       <c r="K19" s="12">
-        <f>0</f>
+        <f>I19*D4</f>
         <v>0</v>
       </c>
       <c r="L19" s="12">
         <f>J19-K19</f>
-        <v>201.05811410816833</v>
+        <v>205.15850778426875</v>
       </c>
       <c r="M19" s="12">
         <f>$C$29*L19</f>
-        <v>198.08681193005228</v>
+        <v>205.15645619919093</v>
       </c>
       <c r="N19" s="12">
         <f>L19-M19</f>
-        <v>2.9713021781160478</v>
+        <v>2.0515850778224376E-3</v>
       </c>
       <c r="O19" s="12">
         <v>-1</v>
@@ -1106,7 +3992,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1114,25 +4000,49 @@
         <f>75.4233392836</f>
         <v>75.423339283600001</v>
       </c>
-      <c r="D20" s="18">
-        <v>60</v>
+      <c r="D20" s="23">
+        <v>57.704789740044859</v>
       </c>
       <c r="E20" s="17">
         <f t="shared" ref="E20:E25" si="0" xml:space="preserve"> C20+D20</f>
-        <v>135.4233392836</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="18">
+        <v>133.12812902364487</v>
+      </c>
+      <c r="F20" s="12">
+        <f t="shared" ref="F20:F25" si="1">M20</f>
+        <v>496.64923395634906</v>
+      </c>
+      <c r="G20" s="22">
         <f>(G21-G19*C12)/(C12+1)</f>
-        <v>490.0110593428858</v>
-      </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
+        <v>619.93447313519323</v>
+      </c>
+      <c r="H20" s="12">
+        <f>G20+$N$29*O20+$N$30*P20</f>
+        <v>501.41766834765679</v>
+      </c>
+      <c r="I20" s="12">
+        <f t="shared" ref="I20:I25" si="2">H20</f>
+        <v>501.41766834765679</v>
+      </c>
+      <c r="J20" s="12">
+        <f t="shared" ref="J20:J25" si="3">H20</f>
+        <v>501.41766834765679</v>
+      </c>
+      <c r="K20" s="12">
+        <f t="shared" ref="K20:K25" si="4">I20*D5</f>
+        <v>4.7634678493027396</v>
+      </c>
+      <c r="L20" s="12">
+        <f t="shared" ref="L20:L25" si="5">J20-K20</f>
+        <v>496.65420049835404</v>
+      </c>
+      <c r="M20" s="12">
+        <f t="shared" ref="M20:M25" si="6">$C$29*L20</f>
+        <v>496.64923395634906</v>
+      </c>
+      <c r="N20" s="12">
+        <f t="shared" ref="N20:N25" si="7">L20-M20</f>
+        <v>4.9665420049791464E-3</v>
+      </c>
       <c r="O20" s="12">
         <v>0</v>
       </c>
@@ -1140,7 +4050,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1154,17 +4064,41 @@
         <f t="shared" si="0"/>
         <v>696.71788031999995</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="18">
-        <v>3000</v>
-      </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
+      <c r="F21" s="12">
+        <f t="shared" si="1"/>
+        <v>2888.1971766314032</v>
+      </c>
+      <c r="G21" s="23">
+        <v>3540.9025879766455</v>
+      </c>
+      <c r="H21" s="12">
+        <f>G21+$N$29*O21+$N$30*P21</f>
+        <v>2888.2260588919921</v>
+      </c>
+      <c r="I21" s="12">
+        <f t="shared" si="2"/>
+        <v>2888.2260588919921</v>
+      </c>
+      <c r="J21" s="12">
+        <f t="shared" si="3"/>
+        <v>2888.2260588919921</v>
+      </c>
+      <c r="K21" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="12">
+        <f t="shared" si="5"/>
+        <v>2888.2260588919921</v>
+      </c>
+      <c r="M21" s="12">
+        <f t="shared" si="6"/>
+        <v>2888.1971766314032</v>
+      </c>
+      <c r="N21" s="12">
+        <f t="shared" si="7"/>
+        <v>2.8882260588943609E-2</v>
+      </c>
       <c r="O21" s="12">
         <v>-2</v>
       </c>
@@ -1172,7 +4106,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
@@ -1187,40 +4121,40 @@
         <v>24.788823020500001</v>
       </c>
       <c r="F22" s="12">
-        <f>M22</f>
-        <v>1652.5882018309262</v>
+        <f t="shared" si="1"/>
+        <v>2478857.513238261</v>
       </c>
       <c r="G22" s="12">
         <f xml:space="preserve"> C22/(1-$C$29)</f>
-        <v>1677.3770248514263</v>
+        <v>2478882.3020612816</v>
       </c>
       <c r="H22" s="12">
         <f>G22</f>
-        <v>1677.3770248514263</v>
+        <v>2478882.3020612816</v>
       </c>
       <c r="I22" s="12">
-        <f>H22</f>
-        <v>1677.3770248514263</v>
+        <f t="shared" si="2"/>
+        <v>2478882.3020612816</v>
       </c>
       <c r="J22" s="12">
-        <f>I22</f>
-        <v>1677.3770248514263</v>
+        <f t="shared" si="3"/>
+        <v>2478882.3020612816</v>
       </c>
       <c r="K22" s="12">
-        <f>J22*D7</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L22" s="12">
-        <f>J22-K22</f>
-        <v>1677.3770248514263</v>
+        <f t="shared" si="5"/>
+        <v>2478882.3020612816</v>
       </c>
       <c r="M22" s="12">
-        <f>L22*$C$29</f>
-        <v>1652.5882018309262</v>
+        <f t="shared" si="6"/>
+        <v>2478857.513238261</v>
       </c>
       <c r="N22" s="12">
-        <f>L22-M22</f>
-        <v>24.788823020500104</v>
+        <f t="shared" si="7"/>
+        <v>24.788823020644486</v>
       </c>
       <c r="O22" s="12">
         <v>0</v>
@@ -1229,7 +4163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>15</v>
       </c>
@@ -1243,17 +4177,41 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="18">
-        <v>30</v>
-      </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
+      <c r="F23" s="12">
+        <f t="shared" si="1"/>
+        <v>36.337839961894169</v>
+      </c>
+      <c r="G23" s="23">
+        <v>35.73849905083803</v>
+      </c>
+      <c r="H23" s="12">
+        <f>G23+$N$29*O23+$N$30*P23</f>
+        <v>302.81836119939663</v>
+      </c>
+      <c r="I23" s="12">
+        <f t="shared" si="2"/>
+        <v>302.81836119939663</v>
+      </c>
+      <c r="J23" s="12">
+        <f t="shared" si="3"/>
+        <v>302.81836119939663</v>
+      </c>
+      <c r="K23" s="12">
+        <f t="shared" si="4"/>
+        <v>266.48015785546903</v>
+      </c>
+      <c r="L23" s="12">
+        <f t="shared" si="5"/>
+        <v>36.338203343927603</v>
+      </c>
+      <c r="M23" s="12">
+        <f t="shared" si="6"/>
+        <v>36.337839961894169</v>
+      </c>
+      <c r="N23" s="12">
+        <f t="shared" si="7"/>
+        <v>3.6338203343433406E-4</v>
+      </c>
       <c r="O23" s="12">
         <v>1</v>
       </c>
@@ -1261,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>17</v>
       </c>
@@ -1275,15 +4233,42 @@
         <f t="shared" si="0"/>
         <v>1.7690102429999999</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
+      <c r="F24" s="12">
+        <f t="shared" si="1"/>
+        <v>6.3307657297225708</v>
+      </c>
+      <c r="G24" s="12">
+        <f>(C24+D24+$C$29*(1-D9)*(P24*N30))/(1-$C$29*(1-D9))</f>
+        <v>8.0997759727225773</v>
+      </c>
+      <c r="H24" s="12">
+        <f>G24+$N$29*O24+$N$30*P24</f>
+        <v>126.61658076025903</v>
+      </c>
+      <c r="I24" s="12">
+        <f t="shared" si="2"/>
+        <v>126.61658076025903</v>
+      </c>
+      <c r="J24" s="12">
+        <f t="shared" si="3"/>
+        <v>126.61658076025903</v>
+      </c>
+      <c r="K24" s="12">
+        <f t="shared" si="4"/>
+        <v>120.28575172224608</v>
+      </c>
+      <c r="L24" s="12">
+        <f t="shared" si="5"/>
+        <v>6.3308290380129506</v>
+      </c>
+      <c r="M24" s="12">
+        <f t="shared" si="6"/>
+        <v>6.3307657297225708</v>
+      </c>
+      <c r="N24" s="12">
+        <f t="shared" si="7"/>
+        <v>6.3308290379815446E-5</v>
+      </c>
       <c r="O24" s="12">
         <v>0</v>
       </c>
@@ -1291,7 +4276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>19</v>
       </c>
@@ -1306,40 +4291,40 @@
         <v>3.1706106663</v>
       </c>
       <c r="F25" s="12">
-        <f>M25</f>
-        <v>211.37404447938104</v>
+        <f t="shared" si="1"/>
+        <v>317057.89602077665</v>
       </c>
       <c r="G25" s="12">
         <f>E25/(1-$C$29)</f>
-        <v>214.54465514568105</v>
+        <v>317061.06663144293</v>
       </c>
       <c r="H25" s="12">
         <f>G25</f>
-        <v>214.54465514568105</v>
+        <v>317061.06663144293</v>
       </c>
       <c r="I25" s="12">
-        <f>H25</f>
-        <v>214.54465514568105</v>
+        <f t="shared" si="2"/>
+        <v>317061.06663144293</v>
       </c>
       <c r="J25" s="12">
-        <f>I25</f>
-        <v>214.54465514568105</v>
+        <f t="shared" si="3"/>
+        <v>317061.06663144293</v>
       </c>
       <c r="K25" s="12">
-        <f>J25*D10</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L25" s="12">
-        <f>J25-K25</f>
-        <v>214.54465514568105</v>
+        <f t="shared" si="5"/>
+        <v>317061.06663144293</v>
       </c>
       <c r="M25" s="12">
-        <f>L25*$C$29</f>
-        <v>211.37404447938104</v>
+        <f t="shared" si="6"/>
+        <v>317057.89602077665</v>
       </c>
       <c r="N25" s="12">
-        <f>L25-M25</f>
-        <v>3.1706106663000071</v>
+        <f t="shared" si="7"/>
+        <v>3.1706106662750244</v>
       </c>
       <c r="O25" s="12">
         <v>0</v>
@@ -1348,7 +4333,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <f>(G25+G22)/SUM(G19:G25)</f>
+        <v>0.99837229279506834</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>33</v>
       </c>
@@ -1394,27 +4385,49 @@
         <f>K9</f>
         <v>313.14999999999998</v>
       </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P27" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q27">
+        <f>C20+D20+$C$29*(1-D5)*(G20+O20*$N$29+P20*$N$30)-G20</f>
+        <v>9.8428898448007658</v>
+      </c>
+      <c r="R27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="P28" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q28">
+        <f>C21+D21+$C$29*(1-D6)*(G21+O21*$N$29+P21*$N$30)-G21</f>
+        <v>44.012468974757667</v>
+      </c>
+      <c r="R28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29" s="15" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="16">
-        <v>0.98522167488093759</v>
+        <v>0.99999000000000005</v>
       </c>
       <c r="E29" t="s">
         <v>35</v>
       </c>
       <c r="F29">
         <f>1-N19/(C19+D19)</f>
-        <v>0.98000000000542487</v>
+        <v>0.99998619066689087</v>
       </c>
       <c r="H29" t="s">
         <v>36</v>
       </c>
       <c r="I29">
         <f>F29-F13</f>
-        <v>5.4248827652259024E-12</v>
+        <v>1.9986190666890891E-2</v>
       </c>
       <c r="J29" t="s">
         <v>37</v>
@@ -1424,29 +4437,287 @@
       </c>
       <c r="N29" s="12">
         <f>-G23+F12*(G23+G20+G19)</f>
-        <v>229.9988940657114</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+        <v>267.07986214855862</v>
+      </c>
+      <c r="P29" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q29">
+        <f>C23+D23+$C$29*(1-D8)*(G23+O23*$N$29+P23*$N$30)-G23</f>
+        <v>0.59934091105612453</v>
+      </c>
+      <c r="R29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M30" s="19" t="s">
         <v>39</v>
       </c>
       <c r="N30" s="12">
         <f>N29-G19*C13</f>
-        <v>84.405087297727448</v>
+        <v>118.51680478753644</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="24">
+        <f xml:space="preserve"> SUM(M19:M25)/SUM(E19:E25)</f>
+        <v>2776.9449644134215</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>53</v>
+      </c>
+      <c r="I32" t="s">
+        <v>54</v>
+      </c>
+      <c r="J32" t="s">
+        <v>55</v>
+      </c>
+      <c r="K32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>0.99999000000000005</v>
+      </c>
+      <c r="E33">
+        <v>0.99998619066689087</v>
+      </c>
+      <c r="F33">
+        <v>2776.9449644134215</v>
+      </c>
+      <c r="G33">
+        <v>0.99837229279506834</v>
+      </c>
+      <c r="H33">
+        <v>0.99999000000000005</v>
+      </c>
+      <c r="I33">
+        <v>0.99998619066689087</v>
+      </c>
+      <c r="J33">
+        <v>2776.9449644134215</v>
+      </c>
+      <c r="K33">
+        <v>0.99837229279506834</v>
+      </c>
+    </row>
+    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>0.99999000000000005</v>
+      </c>
+      <c r="I34">
+        <v>0.99998619066689087</v>
+      </c>
+      <c r="J34">
+        <v>2776.9449644134215</v>
+      </c>
+      <c r="K34">
+        <v>0.99837229279506834</v>
+      </c>
+    </row>
+    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="I35">
+        <v>0.99986192382956629</v>
+      </c>
+      <c r="J35">
+        <v>280.9122035452815</v>
+      </c>
+      <c r="K35">
+        <v>0.98395797139405916</v>
+      </c>
+    </row>
+    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>0.999</v>
+      </c>
+      <c r="I36">
+        <v>0.99862095201864087</v>
+      </c>
+      <c r="J36">
+        <v>31.305559525154205</v>
+      </c>
+      <c r="K36">
+        <v>0.85982167716090574</v>
+      </c>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>0.99</v>
+      </c>
+      <c r="I37">
+        <v>0.98637858149365909</v>
+      </c>
+      <c r="J37">
+        <v>6.3112526511288811</v>
+      </c>
+      <c r="K37">
+        <v>0.38023714415997545</v>
+      </c>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>0.9</v>
+      </c>
+      <c r="I38">
+        <v>0.87866108786610875</v>
+      </c>
+      <c r="J38">
+        <v>3.4786379490152375</v>
+      </c>
+      <c r="K38">
+        <v>5.7919438606453204E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>0.8</v>
+      </c>
+      <c r="I39">
+        <v>0.78358208955223885</v>
+      </c>
+      <c r="J39">
+        <v>2.9714206088452979</v>
+      </c>
+      <c r="K39">
+        <v>2.9878604424318736E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>0.7</v>
+      </c>
+      <c r="I40">
+        <v>0.70707070707070696</v>
+      </c>
+      <c r="J40">
+        <v>2.5607510506400692</v>
+      </c>
+      <c r="K40">
+        <v>2.0150854103409409E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>0.6</v>
+      </c>
+      <c r="I41">
+        <v>0.64417177914110413</v>
+      </c>
+      <c r="J41">
+        <v>2.1762037818073865</v>
+      </c>
+      <c r="K41">
+        <v>1.5210016747660949E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>0.5</v>
+      </c>
+      <c r="I42">
+        <v>0.59154929577464777</v>
+      </c>
+      <c r="J42">
+        <v>1.8031772115670923</v>
+      </c>
+      <c r="K42">
+        <v>1.2219421851874919E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <v>0.4</v>
+      </c>
+      <c r="I43">
+        <v>0.546875</v>
+      </c>
+      <c r="J43">
+        <v>1.4365362084630715</v>
+      </c>
+      <c r="K43">
+        <v>1.0214210088475869E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>0.3</v>
+      </c>
+      <c r="I44">
+        <v>0.50847457627118642</v>
+      </c>
+      <c r="J44">
+        <v>1.0739309364310927</v>
+      </c>
+      <c r="K44">
+        <v>8.7759874246021909E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>0.2</v>
+      </c>
+      <c r="I45">
+        <v>0.47511312217194568</v>
+      </c>
+      <c r="J45">
+        <v>0.71409880402350212</v>
+      </c>
+      <c r="K45">
+        <v>7.6939095139882284E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>0.1</v>
+      </c>
+      <c r="I46">
+        <v>0.44585987261146487</v>
+      </c>
+      <c r="J46">
+        <v>0.35628440711816567</v>
+      </c>
+      <c r="K46">
+        <v>6.8501718749795128E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0.41999999999999993</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>6.1737824586305104E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="J3:L3"/>
-    <mergeCell ref="B16:C16"/>
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Session7_Ta/EXE6_input.xlsx
+++ b/Session7_Ta/EXE6_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sina\Documents\GitHub\Process-of-Organic-Industry--Spring-2024-\Session7_Ta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E06C66-5108-442F-A245-14EE05DBE32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726AD1D5-DB65-4F81-8B94-655DDEA85DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{8B4CFB3B-6E69-415F-A796-98EB67215936}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="78">
   <si>
     <t>F0</t>
   </si>
@@ -248,6 +248,27 @@
   </si>
   <si>
     <t>---&gt; GS in TR'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h FA </t>
+  </si>
+  <si>
+    <t>H FA</t>
+  </si>
+  <si>
+    <t>h R</t>
+  </si>
+  <si>
+    <t>H R</t>
+  </si>
+  <si>
+    <t>H FA1</t>
+  </si>
+  <si>
+    <t>h FA1</t>
+  </si>
+  <si>
+    <t>---&gt; GS in T FA1</t>
   </si>
 </sst>
 </file>
@@ -437,7 +458,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -511,6 +532,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
@@ -2194,10 +2216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D9704C-37BA-45CD-A2BD-B1128D15BA11}">
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:T47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+      <selection activeCell="S47" sqref="S47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2207,6 +2229,8 @@
     <col min="11" max="11" width="9.140625" customWidth="1"/>
     <col min="13" max="13" width="10.85546875" customWidth="1"/>
     <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -3095,13 +3119,13 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C33" s="14"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G34" s="28" t="s">
         <v>68</v>
       </c>
@@ -3127,7 +3151,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
         <v>2</v>
       </c>
@@ -3164,8 +3188,26 @@
       <c r="N35" s="25" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O35" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="P35" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q35" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="R35" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="S35" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="T35" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>7</v>
       </c>
@@ -3213,8 +3255,32 @@
         <f>M36*G19*1000/3600</f>
         <v>-54688.94187190348</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O36" s="26">
+        <f>C36*($O$44-$G$46)+D36/2*($O$44^2-$G$46^2)+E36/3*($O$44^3-$G$46^3)+F36/4*($O$44^4-$G$46^4)</f>
+        <v>0</v>
+      </c>
+      <c r="P36" s="26">
+        <f xml:space="preserve"> O36*H19*1000/3600</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="17">
+        <f>C36*($Q$44-$G$46)+D36/2*($Q$44^2-$G$46^2)+E36/3*($Q$44^3-$G$46^3)+F36/4*($Q$44^4-$G$46^4)</f>
+        <v>-6602.650622552258</v>
+      </c>
+      <c r="R36" s="12">
+        <f>Q36*M19*1000/3600</f>
+        <v>-363305.00336370885</v>
+      </c>
+      <c r="S36" s="17">
+        <f>C36*($S$44-$G$46)+D36/2*($S$44^2-$G$46^2)+E36/3*($S$44^3-$G$46^3)+F36/4*($S$44^4-$G$46^4)</f>
+        <v>-4449.545475380115</v>
+      </c>
+      <c r="T36" s="17">
+        <f>S36*I19*1000/3600</f>
+        <v>-248504.78386623869</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>9</v>
       </c>
@@ -3262,8 +3328,32 @@
         <f t="shared" ref="N37:N42" si="15">M37*G20*1000/3600</f>
         <v>-148186.39319676283</v>
       </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O37" s="26">
+        <f t="shared" ref="O37:O42" si="16">C37*($O$44-$G$46)+D37/2*($O$44^2-$G$46^2)+E37/3*($O$44^3-$G$46^3)+F37/4*($O$44^4-$G$46^4)</f>
+        <v>0</v>
+      </c>
+      <c r="P37" s="26">
+        <f t="shared" ref="P37:P42" si="17" xml:space="preserve"> O37*H20*1000/3600</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="17">
+        <f t="shared" ref="Q37:Q42" si="18">C37*($Q$44-$G$46)+D37/2*($Q$44^2-$G$46^2)+E37/3*($Q$44^3-$G$46^3)+F37/4*($Q$44^4-$G$46^4)</f>
+        <v>-9439.2027048009022</v>
+      </c>
+      <c r="R37" s="12">
+        <f t="shared" ref="R37:R42" si="19">Q37*M20*1000/3600</f>
+        <v>-1290309.0594534418</v>
+      </c>
+      <c r="S37" s="17">
+        <f t="shared" ref="S37:S42" si="20">C37*($S$44-$G$46)+D37/2*($S$44^2-$G$46^2)+E37/3*($S$44^3-$G$46^3)+F37/4*($S$44^4-$G$46^4)</f>
+        <v>-6488.2841523337001</v>
+      </c>
+      <c r="T37" s="17">
+        <f t="shared" ref="T37:T42" si="21">S37*I20*1000/3600</f>
+        <v>-908866.00135950616</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>11</v>
       </c>
@@ -3311,8 +3401,32 @@
         <f t="shared" si="15"/>
         <v>-560587.28664663923</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O38" s="26">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="26">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="17">
+        <f t="shared" si="18"/>
+        <v>-6600.9575338120803</v>
+      </c>
+      <c r="R38" s="12">
+        <f t="shared" si="19"/>
+        <v>-5215095.1315442342</v>
+      </c>
+      <c r="S38" s="17">
+        <f t="shared" si="20"/>
+        <v>-4454.7920917749843</v>
+      </c>
+      <c r="T38" s="17">
+        <f t="shared" si="21"/>
+        <v>-3572307.0323086167</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>13</v>
       </c>
@@ -3360,8 +3474,32 @@
         <f t="shared" si="15"/>
         <v>-396493.85253476852</v>
       </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O39" s="26">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="26">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="17">
+        <f t="shared" si="18"/>
+        <v>-9151.7405104869085</v>
+      </c>
+      <c r="R39" s="12">
+        <f t="shared" si="19"/>
+        <v>-4201127.3316246672</v>
+      </c>
+      <c r="S39" s="17">
+        <f t="shared" si="20"/>
+        <v>-6356.0926379240773</v>
+      </c>
+      <c r="T39" s="17">
+        <f t="shared" si="21"/>
+        <v>-2961545.4885225398</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>15</v>
       </c>
@@ -3409,8 +3547,32 @@
         <f t="shared" si="15"/>
         <v>15148.770448763335</v>
       </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O40" s="26">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="26">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="17">
+        <f t="shared" si="18"/>
+        <v>8827.8286506490349</v>
+      </c>
+      <c r="R40" s="12">
+        <f t="shared" si="19"/>
+        <v>87637.040536371918</v>
+      </c>
+      <c r="S40" s="17">
+        <f t="shared" si="20"/>
+        <v>7875.2485847108119</v>
+      </c>
+      <c r="T40" s="17">
+        <f t="shared" si="21"/>
+        <v>661276.17500225699</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>17</v>
       </c>
@@ -3458,8 +3620,32 @@
         <f t="shared" si="15"/>
         <v>-1509.9087266199547</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O41" s="26">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="26">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="17">
+        <f t="shared" si="18"/>
+        <v>-7709.991588927167</v>
+      </c>
+      <c r="R41" s="12">
+        <f t="shared" si="19"/>
+        <v>-13618.415398901512</v>
+      </c>
+      <c r="S41" s="17">
+        <f t="shared" si="20"/>
+        <v>-5210.8072179081446</v>
+      </c>
+      <c r="T41" s="17">
+        <f t="shared" si="21"/>
+        <v>-186841.6599028919</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>19</v>
       </c>
@@ -3507,8 +3693,32 @@
         <f t="shared" si="15"/>
         <v>-33569.168730458747</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O42" s="26">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="26">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="17">
+        <f t="shared" si="18"/>
+        <v>-6573.5594953412228</v>
+      </c>
+      <c r="R42" s="12">
+        <f t="shared" si="19"/>
+        <v>-385966.6269878092</v>
+      </c>
+      <c r="S42" s="17">
+        <f t="shared" si="20"/>
+        <v>-4423.5983097863354</v>
+      </c>
+      <c r="T42" s="17">
+        <f t="shared" si="21"/>
+        <v>-263627.60385447973</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G44" s="12">
         <v>823.15</v>
       </c>
@@ -3521,13 +3731,22 @@
       <c r="M44" s="12">
         <v>518.15</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O44" s="12">
+        <v>537.15</v>
+      </c>
+      <c r="Q44" s="12">
+        <v>313.14999999999998</v>
+      </c>
+      <c r="S44" s="18">
+        <v>386.89199657598499</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K45" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
         <v>66</v>
       </c>
@@ -3535,16 +3754,26 @@
         <v>537.15</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
       <c r="J47" t="s">
         <v>36</v>
       </c>
-      <c r="K47" s="29">
+      <c r="K47" s="30">
         <f>SUM(H36:H42)+SUM(J36:J42)+SUM(L36:L42)-SUM(N36:N42)</f>
         <v>8.8475644588470459E-9</v>
       </c>
-      <c r="L47" s="30" t="s">
+      <c r="L47" s="31" t="s">
         <v>70</v>
+      </c>
+      <c r="R47" t="s">
+        <v>36</v>
+      </c>
+      <c r="S47" s="29">
+        <f xml:space="preserve"> SUM(P36:P42)+SUM(R36:R42)-SUM(T36:T42)-SUM(L36:L42)</f>
+        <v>0</v>
+      </c>
+      <c r="T47" s="31" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Session7_Ta/EXE6_input.xlsx
+++ b/Session7_Ta/EXE6_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sina\Documents\GitHub\Process-of-Organic-Industry--Spring-2024-\Session7_Ta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726AD1D5-DB65-4F81-8B94-655DDEA85DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714031EC-6A3E-4BBB-B7F4-0B5DC16D482F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{8B4CFB3B-6E69-415F-A796-98EB67215936}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="83">
   <si>
     <t>F0</t>
   </si>
@@ -269,13 +269,28 @@
   </si>
   <si>
     <t>---&gt; GS in T FA1</t>
+  </si>
+  <si>
+    <t>h FA2</t>
+  </si>
+  <si>
+    <t>H FA2</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>kW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +344,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -350,7 +373,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,6 +389,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
     <fill>
@@ -386,7 +414,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -438,6 +466,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -452,13 +495,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -485,6 +542,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -494,12 +554,12 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -508,19 +568,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -529,16 +592,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="2" builtinId="10"/>
+    <cellStyle name="Note" xfId="3" builtinId="10"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2216,10 +2286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D9704C-37BA-45CD-A2BD-B1128D15BA11}">
-  <dimension ref="A1:T47"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S47" sqref="S47"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2231,6 +2301,7 @@
     <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -2504,10 +2575,10 @@
       <c r="F12" s="4">
         <v>0.3</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="20"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
@@ -2522,28 +2593,28 @@
       <c r="F13" s="4">
         <v>0.98</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="13"/>
+      <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J14" s="13" t="s">
+      <c r="J14" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="13"/>
+      <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J15" s="13" t="s">
+      <c r="J15" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="K15" s="13"/>
+      <c r="K15" s="14"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="15"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C18" s="8" t="s">
@@ -2582,10 +2653,10 @@
       <c r="N18" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="O18" s="21" t="s">
+      <c r="O18" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="P18" s="21" t="s">
+      <c r="P18" s="22" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2596,53 +2667,53 @@
       <c r="C19" s="3">
         <v>148.5651089461</v>
       </c>
-      <c r="D19" s="12">
-        <v>0</v>
-      </c>
-      <c r="E19" s="17">
+      <c r="D19" s="13">
+        <v>0</v>
+      </c>
+      <c r="E19" s="18">
         <f xml:space="preserve"> C19+D19</f>
         <v>148.5651089461</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="13">
         <f>M19</f>
         <v>198.08681193005228</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="13">
         <f>E19/(1-$C$29*(1-$C$13))</f>
         <v>346.65192087615225</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="13">
         <f>G19*(1-$C$13)</f>
         <v>201.05811410816833</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="13">
         <f>H19</f>
         <v>201.05811410816833</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="13">
         <f>H19</f>
         <v>201.05811410816833</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="13">
         <f>I19*D4</f>
         <v>0</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="13">
         <f>J19-K19</f>
         <v>201.05811410816833</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="13">
         <f>$C$29*L19</f>
         <v>198.08681193005228</v>
       </c>
-      <c r="N19" s="12">
+      <c r="N19" s="13">
         <f>L19-M19</f>
         <v>2.9713021781160478</v>
       </c>
-      <c r="O19" s="12">
+      <c r="O19" s="13">
         <v>-1</v>
       </c>
-      <c r="P19" s="12">
+      <c r="P19" s="13">
         <v>-1</v>
       </c>
     </row>
@@ -2654,53 +2725,53 @@
         <f>75.4233392836</f>
         <v>75.423339283600001</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="24">
         <v>57.704789740044859</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="18">
         <f t="shared" ref="E20:E25" si="0" xml:space="preserve"> C20+D20</f>
         <v>133.12812902364487</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="13">
         <f t="shared" ref="F20:F25" si="1">M20</f>
         <v>492.10857731340229</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="23">
         <f>(G21-G19*C12)/(C12+1)</f>
         <v>625.23670633704717</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="13">
         <f>G20+$N$29*O20+$N$30*P20</f>
         <v>504.28087427665787</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="13">
         <f t="shared" ref="I20:I25" si="2">H20</f>
         <v>504.28087427665787</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="13">
         <f t="shared" ref="J20:J25" si="3">H20</f>
         <v>504.28087427665787</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20" s="13">
         <f t="shared" ref="K20:K25" si="4">I20*D5</f>
         <v>4.79066830562825</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="13">
         <f t="shared" ref="L20:L25" si="5">J20-K20</f>
         <v>499.49020597102964</v>
       </c>
-      <c r="M20" s="12">
+      <c r="M20" s="13">
         <f t="shared" ref="M20:M25" si="6">$C$29*L20</f>
         <v>492.10857731340229</v>
       </c>
-      <c r="N20" s="12">
+      <c r="N20" s="13">
         <f t="shared" ref="N20:N25" si="7">L20-M20</f>
         <v>7.3816286576273455</v>
       </c>
-      <c r="O20" s="12">
-        <v>0</v>
-      </c>
-      <c r="P20" s="12">
+      <c r="O20" s="13">
+        <v>0</v>
+      </c>
+      <c r="P20" s="13">
         <v>-1</v>
       </c>
     </row>
@@ -2711,52 +2782,52 @@
       <c r="C21" s="3">
         <v>696.71788031999995</v>
       </c>
-      <c r="D21" s="12">
-        <v>0</v>
-      </c>
-      <c r="E21" s="17">
+      <c r="D21" s="13">
+        <v>0</v>
+      </c>
+      <c r="E21" s="18">
         <f t="shared" si="0"/>
         <v>696.71788031999995</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="13">
         <f t="shared" si="1"/>
         <v>2844.1847076566455</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="24">
         <v>3540.9025879766455</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="13">
         <f>G21+$N$29*O21+$N$30*P21</f>
         <v>2886.8474782595099</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="13">
         <f t="shared" si="2"/>
         <v>2886.8474782595099</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="13">
         <f t="shared" si="3"/>
         <v>2886.8474782595099</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="13">
         <f t="shared" si="5"/>
         <v>2886.8474782595099</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="13">
         <f t="shared" si="6"/>
         <v>2844.1847076566455</v>
       </c>
-      <c r="N21" s="12">
+      <c r="N21" s="13">
         <f t="shared" si="7"/>
         <v>42.662770602864384</v>
       </c>
-      <c r="O21" s="12">
+      <c r="O21" s="13">
         <v>-2</v>
       </c>
-      <c r="P21" s="12">
+      <c r="P21" s="13">
         <v>-1</v>
       </c>
     </row>
@@ -2767,53 +2838,53 @@
       <c r="C22" s="3">
         <v>24.788823020500001</v>
       </c>
-      <c r="D22" s="12">
-        <v>0</v>
-      </c>
-      <c r="E22" s="17">
+      <c r="D22" s="13">
+        <v>0</v>
+      </c>
+      <c r="E22" s="18">
         <f t="shared" si="0"/>
         <v>24.788823020500001</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="13">
         <f t="shared" si="1"/>
         <v>1652.5882018309262</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="13">
         <f xml:space="preserve"> C22/(1-$C$29)</f>
         <v>1677.3770248514263</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="13">
         <f>G22</f>
         <v>1677.3770248514263</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="13">
         <f t="shared" si="2"/>
         <v>1677.3770248514263</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="13">
         <f t="shared" si="3"/>
         <v>1677.3770248514263</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K22" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="13">
         <f t="shared" si="5"/>
         <v>1677.3770248514263</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M22" s="13">
         <f t="shared" si="6"/>
         <v>1652.5882018309262</v>
       </c>
-      <c r="N22" s="12">
+      <c r="N22" s="13">
         <f t="shared" si="7"/>
         <v>24.788823020500104</v>
       </c>
-      <c r="O22" s="12">
-        <v>0</v>
-      </c>
-      <c r="P22" s="12">
+      <c r="O22" s="13">
+        <v>0</v>
+      </c>
+      <c r="P22" s="13">
         <v>0</v>
       </c>
     </row>
@@ -2824,52 +2895,52 @@
       <c r="C23" s="3">
         <v>0</v>
       </c>
-      <c r="D23" s="12">
-        <v>0</v>
-      </c>
-      <c r="E23" s="17">
+      <c r="D23" s="13">
+        <v>0</v>
+      </c>
+      <c r="E23" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="13">
         <f t="shared" si="1"/>
         <v>35.738499059759548</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="24">
         <v>35.73849905083803</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="13">
         <f>G23+$N$29*O23+$N$30*P23</f>
         <v>302.28813787921126</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="13">
         <f t="shared" si="2"/>
         <v>302.28813787921126</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="13">
         <f t="shared" si="3"/>
         <v>302.28813787921126</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="13">
         <f t="shared" si="4"/>
         <v>266.01356133370592</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="13">
         <f t="shared" si="5"/>
         <v>36.27457654550534</v>
       </c>
-      <c r="M23" s="12">
+      <c r="M23" s="13">
         <f t="shared" si="6"/>
         <v>35.738499059759548</v>
       </c>
-      <c r="N23" s="12">
+      <c r="N23" s="13">
         <f t="shared" si="7"/>
         <v>0.53607748574579261</v>
       </c>
-      <c r="O23" s="12">
+      <c r="O23" s="13">
         <v>1</v>
       </c>
-      <c r="P23" s="12">
+      <c r="P23" s="13">
         <v>0</v>
       </c>
     </row>
@@ -2880,53 +2951,53 @@
       <c r="C24" s="3">
         <v>1.7690102429999999</v>
       </c>
-      <c r="D24" s="12">
-        <v>0</v>
-      </c>
-      <c r="E24" s="17">
+      <c r="D24" s="13">
+        <v>0</v>
+      </c>
+      <c r="E24" s="18">
         <f t="shared" si="0"/>
         <v>1.7690102429999999</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="13">
         <f t="shared" si="1"/>
         <v>6.3588001193743686</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="13">
         <f>(C24+D24+$C$29*(1-D9)*(P24*N30))/(1-$C$29*(1-D9))</f>
         <v>8.1278103623743689</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="13">
         <f>G24+$N$29*O24+$N$30*P24</f>
         <v>129.08364242276366</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="13">
         <f t="shared" si="2"/>
         <v>129.08364242276366</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="13">
         <f t="shared" si="3"/>
         <v>129.08364242276366</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="13">
         <f t="shared" si="4"/>
         <v>122.62946030162547</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="13">
         <f t="shared" si="5"/>
         <v>6.4541821211381887</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M24" s="13">
         <f t="shared" si="6"/>
         <v>6.3588001193743686</v>
       </c>
-      <c r="N24" s="12">
+      <c r="N24" s="13">
         <f t="shared" si="7"/>
         <v>9.5382001763820057E-2</v>
       </c>
-      <c r="O24" s="12">
-        <v>0</v>
-      </c>
-      <c r="P24" s="12">
+      <c r="O24" s="13">
+        <v>0</v>
+      </c>
+      <c r="P24" s="13">
         <v>1</v>
       </c>
     </row>
@@ -2937,53 +3008,53 @@
       <c r="C25" s="3">
         <v>3.1706106663</v>
       </c>
-      <c r="D25" s="12">
-        <v>0</v>
-      </c>
-      <c r="E25" s="17">
+      <c r="D25" s="13">
+        <v>0</v>
+      </c>
+      <c r="E25" s="18">
         <f t="shared" si="0"/>
         <v>3.1706106663</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="13">
         <f t="shared" si="1"/>
         <v>211.37404447938104</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="13">
         <f>E25/(1-$C$29)</f>
         <v>214.54465514568105</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="13">
         <f>G25</f>
         <v>214.54465514568105</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="13">
         <f t="shared" si="2"/>
         <v>214.54465514568105</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="13">
         <f t="shared" si="3"/>
         <v>214.54465514568105</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="13">
         <f t="shared" si="5"/>
         <v>214.54465514568105</v>
       </c>
-      <c r="M25" s="12">
+      <c r="M25" s="13">
         <f t="shared" si="6"/>
         <v>211.37404447938104</v>
       </c>
-      <c r="N25" s="12">
+      <c r="N25" s="13">
         <f t="shared" si="7"/>
         <v>3.1706106663000071</v>
       </c>
-      <c r="O25" s="12">
-        <v>0</v>
-      </c>
-      <c r="P25" s="12">
+      <c r="O25" s="13">
+        <v>0</v>
+      </c>
+      <c r="P25" s="13">
         <v>0</v>
       </c>
     </row>
@@ -2991,45 +3062,45 @@
       <c r="B27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="13">
         <f>K4</f>
         <v>823.15</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="13">
         <f>K5</f>
         <v>823.15</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="13">
         <f>K4</f>
         <v>823.15</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12">
+      <c r="F27" s="13"/>
+      <c r="G27" s="13">
         <f>K6</f>
         <v>518.15</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="13">
         <f>K7</f>
         <v>537.15</v>
       </c>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12">
+      <c r="I27" s="13"/>
+      <c r="J27" s="13">
         <f>K8</f>
         <v>383.15</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K27" s="13">
         <f>K9</f>
         <v>313.14999999999998</v>
       </c>
-      <c r="L27" s="12">
+      <c r="L27" s="13">
         <f>K9</f>
         <v>313.14999999999998</v>
       </c>
-      <c r="M27" s="12">
+      <c r="M27" s="13">
         <f>K9</f>
         <v>313.14999999999998</v>
       </c>
-      <c r="N27" s="12">
+      <c r="N27" s="13">
         <f>K9</f>
         <v>313.14999999999998</v>
       </c>
@@ -3057,10 +3128,10 @@
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="17">
         <v>0.98522167488093759</v>
       </c>
       <c r="E29" t="s">
@@ -3080,10 +3151,10 @@
       <c r="J29" t="s">
         <v>37</v>
       </c>
-      <c r="M29" s="19" t="s">
+      <c r="M29" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="N29" s="12">
+      <c r="N29" s="13">
         <f>-G23+F12*(G23+G20+G19)</f>
         <v>266.54963882837325</v>
       </c>
@@ -3099,59 +3170,59 @@
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="M30" s="19" t="s">
+      <c r="M30" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="N30" s="12">
+      <c r="N30" s="13">
         <f>N29-G19*C13</f>
         <v>120.9558320603893</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="26">
         <f xml:space="preserve"> SUM(M19:M25)/SUM(E19:E25)</f>
         <v>5.3965143778424247</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B33" s="14" t="s">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B33" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="14"/>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="G34" s="28" t="s">
+      <c r="C33" s="15"/>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G34" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H34" s="28" t="s">
+      <c r="H34" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I34" s="28" t="s">
+      <c r="I34" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="J34" s="28" t="s">
+      <c r="J34" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="K34" s="28" t="s">
+      <c r="K34" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="L34" s="28" t="s">
+      <c r="L34" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="M34" s="28" t="s">
+      <c r="M34" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="N34" s="28" t="s">
+      <c r="N34" s="30" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
         <v>2</v>
       </c>
@@ -3164,50 +3235,56 @@
       <c r="F35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="G35" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="H35" s="25" t="s">
+      <c r="H35" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="I35" s="25" t="s">
+      <c r="I35" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="J35" s="25" t="s">
+      <c r="J35" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="K35" s="25" t="s">
+      <c r="K35" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="L35" s="25" t="s">
+      <c r="L35" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="M35" s="25" t="s">
+      <c r="M35" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="N35" s="25" t="s">
+      <c r="N35" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="O35" s="25" t="s">
+      <c r="O35" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="P35" s="25" t="s">
+      <c r="P35" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="Q35" s="25" t="s">
+      <c r="Q35" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="R35" s="25" t="s">
+      <c r="R35" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="S35" s="25" t="s">
+      <c r="S35" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="T35" s="25" t="s">
+      <c r="T35" s="27" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U35" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="V35" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>7</v>
       </c>
@@ -3223,64 +3300,72 @@
       <c r="F36" s="6">
         <v>-1.2226999999999999E-8</v>
       </c>
-      <c r="G36" s="26">
+      <c r="G36" s="28">
         <f>C36*($G$44-$G$46)+D36/2*($G$44^2-$G$46^2)+E36/3*($G$44^3-$G$46^3)+F36/4*($G$44^4-$G$46^4)</f>
         <v>8726.54811210353</v>
       </c>
-      <c r="H36" s="26">
+      <c r="H36" s="28">
         <f>G36*C19*1000/3600</f>
         <v>360127.93638834561</v>
       </c>
-      <c r="I36" s="26">
+      <c r="I36" s="28">
         <f>C36*($G$44-$G$46)+D36/2*($G$44^2-$G$46^2)+E36/3*($G$44^3-$G$46^3)+F36/4*($G$44^4-$G$46^4)</f>
         <v>8726.54811210353</v>
       </c>
-      <c r="J36" s="26">
+      <c r="J36" s="28">
         <f xml:space="preserve"> I36*D19*1000/3600</f>
         <v>0</v>
       </c>
-      <c r="K36" s="27">
+      <c r="K36" s="29">
         <f>C36*($K$44-$G$46)+D36/2*($K$44^2-$G$46^2)+E36/3*($K$44^3-$G$46^3)+F36/4*($K$44^4-$G$46^4)</f>
         <v>-2213.357311116556</v>
       </c>
-      <c r="L36" s="12">
+      <c r="L36" s="13">
         <f>K36*F19*1000/3600</f>
         <v>-121788.02595031985</v>
       </c>
-      <c r="M36" s="26">
+      <c r="M36" s="28">
         <f>C36*($M$44-$G$46)+D36/2*($M$44^2-$G$46^2)+E36/3*($M$44^3-$G$46^3)+F36/4*($M$44^4-$G$46^4)</f>
         <v>-567.94778532091732</v>
       </c>
-      <c r="N36" s="17">
+      <c r="N36" s="18">
         <f>M36*G19*1000/3600</f>
         <v>-54688.94187190348</v>
       </c>
-      <c r="O36" s="26">
+      <c r="O36" s="28">
         <f>C36*($O$44-$G$46)+D36/2*($O$44^2-$G$46^2)+E36/3*($O$44^3-$G$46^3)+F36/4*($O$44^4-$G$46^4)</f>
         <v>0</v>
       </c>
-      <c r="P36" s="26">
+      <c r="P36" s="28">
         <f xml:space="preserve"> O36*H19*1000/3600</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="17">
+      <c r="Q36" s="18">
         <f>C36*($Q$44-$G$46)+D36/2*($Q$44^2-$G$46^2)+E36/3*($Q$44^3-$G$46^3)+F36/4*($Q$44^4-$G$46^4)</f>
         <v>-6602.650622552258</v>
       </c>
-      <c r="R36" s="12">
+      <c r="R36" s="13">
         <f>Q36*M19*1000/3600</f>
         <v>-363305.00336370885</v>
       </c>
-      <c r="S36" s="17">
+      <c r="S36" s="18">
         <f>C36*($S$44-$G$46)+D36/2*($S$44^2-$G$46^2)+E36/3*($S$44^3-$G$46^3)+F36/4*($S$44^4-$G$46^4)</f>
         <v>-4449.545475380115</v>
       </c>
-      <c r="T36" s="17">
+      <c r="T36" s="18">
         <f>S36*I19*1000/3600</f>
         <v>-248504.78386623869</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U36" s="18">
+        <f>C36*($U$44-$G$46)+D36/2*($U$44^2-$G$46^2)+E36/3*($U$44^3-$G$46^3)+F36/4*($U$44^4-$G$46^4)</f>
+        <v>-4559.217880299072</v>
+      </c>
+      <c r="V36" s="13">
+        <f xml:space="preserve"> U36*J19*1000/3600</f>
+        <v>-254629.93022810336</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>9</v>
       </c>
@@ -3296,64 +3381,72 @@
       <c r="F37" s="6">
         <v>3.9968000000000001E-9</v>
       </c>
-      <c r="G37" s="26">
+      <c r="G37" s="28">
         <f t="shared" ref="G37:G42" si="8">C37*($G$44-$G$46)+D37/2*($G$44^2-$G$46^2)+E37/3*($G$44^3-$G$46^3)+F37/4*($G$44^4-$G$46^4)</f>
         <v>13828.436018382774</v>
       </c>
-      <c r="H37" s="26">
+      <c r="H37" s="28">
         <f t="shared" ref="H37:H42" si="9">G37*C20*1000/3600</f>
         <v>289718.56154889963</v>
       </c>
-      <c r="I37" s="26">
+      <c r="I37" s="28">
         <f t="shared" ref="I37:I42" si="10">C37*($G$44-$G$46)+D37/2*($G$44^2-$G$46^2)+E37/3*($G$44^3-$G$46^3)+F37/4*($G$44^4-$G$46^4)</f>
         <v>13828.436018382774</v>
       </c>
-      <c r="J37" s="26">
+      <c r="J37" s="28">
         <f t="shared" ref="J37:J42" si="11" xml:space="preserve"> I37*D20*1000/3600</f>
         <v>221657.49802067806</v>
       </c>
-      <c r="K37" s="27">
+      <c r="K37" s="29">
         <f t="shared" ref="K37:K42" si="12">C37*($K$44-$G$46)+D37/2*($K$44^2-$G$46^2)+E37/3*($K$44^3-$G$46^3)+F37/4*($K$44^4-$G$46^4)</f>
         <v>-3286.0406483846346</v>
       </c>
-      <c r="L37" s="12">
+      <c r="L37" s="13">
         <f t="shared" ref="L37:L42" si="13">K37*F20*1000/3600</f>
         <v>-449191.33013071457</v>
       </c>
-      <c r="M37" s="26">
+      <c r="M37" s="28">
         <f t="shared" ref="M37:M42" si="14">C37*($M$44-$G$46)+D37/2*($M$44^2-$G$46^2)+E37/3*($M$44^3-$G$46^3)+F37/4*($M$44^4-$G$46^4)</f>
         <v>-853.23048071455867</v>
       </c>
-      <c r="N37" s="17">
+      <c r="N37" s="18">
         <f t="shared" ref="N37:N42" si="15">M37*G20*1000/3600</f>
         <v>-148186.39319676283</v>
       </c>
-      <c r="O37" s="26">
+      <c r="O37" s="28">
         <f t="shared" ref="O37:O42" si="16">C37*($O$44-$G$46)+D37/2*($O$44^2-$G$46^2)+E37/3*($O$44^3-$G$46^3)+F37/4*($O$44^4-$G$46^4)</f>
         <v>0</v>
       </c>
-      <c r="P37" s="26">
+      <c r="P37" s="28">
         <f t="shared" ref="P37:P42" si="17" xml:space="preserve"> O37*H20*1000/3600</f>
         <v>0</v>
       </c>
-      <c r="Q37" s="17">
+      <c r="Q37" s="18">
         <f t="shared" ref="Q37:Q42" si="18">C37*($Q$44-$G$46)+D37/2*($Q$44^2-$G$46^2)+E37/3*($Q$44^3-$G$46^3)+F37/4*($Q$44^4-$G$46^4)</f>
         <v>-9439.2027048009022</v>
       </c>
-      <c r="R37" s="12">
+      <c r="R37" s="13">
         <f t="shared" ref="R37:R42" si="19">Q37*M20*1000/3600</f>
         <v>-1290309.0594534418</v>
       </c>
-      <c r="S37" s="17">
+      <c r="S37" s="18">
         <f t="shared" ref="S37:S42" si="20">C37*($S$44-$G$46)+D37/2*($S$44^2-$G$46^2)+E37/3*($S$44^3-$G$46^3)+F37/4*($S$44^4-$G$46^4)</f>
         <v>-6488.2841523337001</v>
       </c>
-      <c r="T37" s="17">
+      <c r="T37" s="18">
         <f t="shared" ref="T37:T42" si="21">S37*I20*1000/3600</f>
         <v>-908866.00135950616</v>
       </c>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U37" s="18">
+        <f t="shared" ref="U37:U42" si="22">C37*($U$44-$G$46)+D37/2*($U$44^2-$G$46^2)+E37/3*($U$44^3-$G$46^3)+F37/4*($U$44^4-$G$46^4)</f>
+        <v>-6641.9245866751271</v>
+      </c>
+      <c r="V37" s="13">
+        <f t="shared" ref="V37:V42" si="23" xml:space="preserve"> U37*J20*1000/3600</f>
+        <v>-930387.64929115621</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>11</v>
       </c>
@@ -3369,64 +3462,72 @@
       <c r="F38" s="6">
         <v>3.1879999999999998E-8</v>
       </c>
-      <c r="G38" s="26">
+      <c r="G38" s="28">
         <f t="shared" si="8"/>
         <v>9009.4312895725507</v>
       </c>
-      <c r="H38" s="26">
+      <c r="H38" s="28">
         <f t="shared" si="9"/>
         <v>1743619.9641554642</v>
       </c>
-      <c r="I38" s="26">
+      <c r="I38" s="28">
         <f t="shared" si="10"/>
         <v>9009.4312895725507</v>
       </c>
-      <c r="J38" s="26">
+      <c r="J38" s="28">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K38" s="27">
+      <c r="K38" s="29">
         <f t="shared" si="12"/>
         <v>-2218.5164432875777</v>
       </c>
-      <c r="L38" s="12">
+      <c r="L38" s="13">
         <f t="shared" si="13"/>
         <v>-1752741.8171342611</v>
       </c>
-      <c r="M38" s="26">
+      <c r="M38" s="28">
         <f t="shared" si="14"/>
         <v>-569.94344853782002</v>
       </c>
-      <c r="N38" s="17">
+      <c r="N38" s="18">
         <f t="shared" si="15"/>
         <v>-560587.28664663923</v>
       </c>
-      <c r="O38" s="26">
+      <c r="O38" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P38" s="26">
+      <c r="P38" s="28">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q38" s="17">
+      <c r="Q38" s="18">
         <f t="shared" si="18"/>
         <v>-6600.9575338120803</v>
       </c>
-      <c r="R38" s="12">
+      <c r="R38" s="13">
         <f t="shared" si="19"/>
         <v>-5215095.1315442342</v>
       </c>
-      <c r="S38" s="17">
+      <c r="S38" s="18">
         <f t="shared" si="20"/>
         <v>-4454.7920917749843</v>
       </c>
-      <c r="T38" s="17">
+      <c r="T38" s="18">
         <f t="shared" si="21"/>
         <v>-3572307.0323086167</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U38" s="18">
+        <f t="shared" si="22"/>
+        <v>-4564.3314997650268</v>
+      </c>
+      <c r="V38" s="13">
+        <f t="shared" si="23"/>
+        <v>-3660146.9111214206</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>13</v>
       </c>
@@ -3442,64 +3543,72 @@
       <c r="F39" s="6">
         <v>-1.5302999999999999E-7</v>
       </c>
-      <c r="G39" s="26">
+      <c r="G39" s="28">
         <f t="shared" si="8"/>
         <v>13596.745599552174</v>
       </c>
-      <c r="H39" s="26">
+      <c r="H39" s="28">
         <f t="shared" si="9"/>
         <v>93624.25564501695</v>
       </c>
-      <c r="I39" s="26">
+      <c r="I39" s="28">
         <f t="shared" si="10"/>
         <v>13596.745599552174</v>
       </c>
-      <c r="J39" s="26">
+      <c r="J39" s="28">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K39" s="27">
+      <c r="K39" s="29">
         <f t="shared" si="12"/>
         <v>-3254.6671426786088</v>
       </c>
-      <c r="L39" s="12">
+      <c r="L39" s="13">
         <f t="shared" si="13"/>
         <v>-1494062.3669104001</v>
       </c>
-      <c r="M39" s="26">
+      <c r="M39" s="28">
         <f t="shared" si="14"/>
         <v>-850.95828068325704</v>
       </c>
-      <c r="N39" s="17">
+      <c r="N39" s="18">
         <f t="shared" si="15"/>
         <v>-396493.85253476852</v>
       </c>
-      <c r="O39" s="26">
+      <c r="O39" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P39" s="26">
+      <c r="P39" s="28">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q39" s="17">
+      <c r="Q39" s="18">
         <f t="shared" si="18"/>
         <v>-9151.7405104869085</v>
       </c>
-      <c r="R39" s="12">
+      <c r="R39" s="13">
         <f t="shared" si="19"/>
         <v>-4201127.3316246672</v>
       </c>
-      <c r="S39" s="17">
+      <c r="S39" s="18">
         <f t="shared" si="20"/>
         <v>-6356.0926379240773</v>
       </c>
-      <c r="T39" s="17">
+      <c r="T39" s="18">
         <f t="shared" si="21"/>
         <v>-2961545.4885225398</v>
       </c>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U39" s="18">
+        <f t="shared" si="22"/>
+        <v>-6503.0108507884797</v>
+      </c>
+      <c r="V39" s="13">
+        <f t="shared" si="23"/>
+        <v>-3030000.275964479</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>15</v>
       </c>
@@ -3515,64 +3624,72 @@
       <c r="F40" s="6">
         <v>-2.1679E-7</v>
       </c>
-      <c r="G40" s="26">
+      <c r="G40" s="28">
         <f t="shared" si="8"/>
         <v>-49296.405535679449</v>
       </c>
-      <c r="H40" s="26">
+      <c r="H40" s="28">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I40" s="26">
+      <c r="I40" s="28">
         <f t="shared" si="10"/>
         <v>-49296.405535679449</v>
       </c>
-      <c r="J40" s="26">
+      <c r="J40" s="28">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K40" s="27">
+      <c r="K40" s="29">
         <f t="shared" si="12"/>
         <v>5038.5907199454832</v>
       </c>
-      <c r="L40" s="12">
+      <c r="L40" s="13">
         <f t="shared" si="13"/>
         <v>50019.908252023568</v>
       </c>
-      <c r="M40" s="26">
+      <c r="M40" s="28">
         <f t="shared" si="14"/>
         <v>1525.9614998931861</v>
       </c>
-      <c r="N40" s="17">
+      <c r="N40" s="18">
         <f t="shared" si="15"/>
         <v>15148.770448763335</v>
       </c>
-      <c r="O40" s="26">
+      <c r="O40" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P40" s="26">
+      <c r="P40" s="28">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q40" s="17">
+      <c r="Q40" s="18">
         <f t="shared" si="18"/>
         <v>8827.8286506490349</v>
       </c>
-      <c r="R40" s="12">
+      <c r="R40" s="13">
         <f t="shared" si="19"/>
         <v>87637.040536371918</v>
       </c>
-      <c r="S40" s="17">
+      <c r="S40" s="18">
         <f t="shared" si="20"/>
         <v>7875.2485847108119</v>
       </c>
-      <c r="T40" s="17">
+      <c r="T40" s="18">
         <f t="shared" si="21"/>
         <v>661276.17500225699</v>
       </c>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U40" s="18">
+        <f t="shared" si="22"/>
+        <v>7962.9289969469228</v>
+      </c>
+      <c r="V40" s="13">
+        <f t="shared" si="23"/>
+        <v>668638.60515318357</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>17</v>
       </c>
@@ -3588,64 +3705,72 @@
       <c r="F41" s="6">
         <v>-1.7824999999999999E-8</v>
       </c>
-      <c r="G41" s="26">
+      <c r="G41" s="28">
         <f t="shared" si="8"/>
         <v>10407.310377123733</v>
       </c>
-      <c r="H41" s="26">
+      <c r="H41" s="28">
         <f t="shared" si="9"/>
         <v>5114.0662942255767</v>
       </c>
-      <c r="I41" s="26">
+      <c r="I41" s="28">
         <f t="shared" si="10"/>
         <v>10407.310377123733</v>
       </c>
-      <c r="J41" s="26">
+      <c r="J41" s="28">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K41" s="27">
+      <c r="K41" s="29">
         <f t="shared" si="12"/>
         <v>-2600.1751570384972</v>
       </c>
-      <c r="L41" s="12">
+      <c r="L41" s="13">
         <f t="shared" si="13"/>
         <v>-4592.7761386029615</v>
       </c>
-      <c r="M41" s="26">
+      <c r="M41" s="28">
         <f t="shared" si="14"/>
         <v>-668.77438983996183</v>
       </c>
-      <c r="N41" s="17">
+      <c r="N41" s="18">
         <f t="shared" si="15"/>
         <v>-1509.9087266199547</v>
       </c>
-      <c r="O41" s="26">
+      <c r="O41" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P41" s="26">
+      <c r="P41" s="28">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="17">
+      <c r="Q41" s="18">
         <f t="shared" si="18"/>
         <v>-7709.991588927167</v>
       </c>
-      <c r="R41" s="12">
+      <c r="R41" s="13">
         <f t="shared" si="19"/>
         <v>-13618.415398901512</v>
       </c>
-      <c r="S41" s="17">
+      <c r="S41" s="18">
         <f t="shared" si="20"/>
         <v>-5210.8072179081446</v>
       </c>
-      <c r="T41" s="17">
+      <c r="T41" s="18">
         <f t="shared" si="21"/>
         <v>-186841.6599028919</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U41" s="18">
+        <f t="shared" si="22"/>
+        <v>-5338.4377195936713</v>
+      </c>
+      <c r="V41" s="13">
+        <f t="shared" si="23"/>
+        <v>-191418.05158117315</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>19</v>
       </c>
@@ -3661,92 +3786,103 @@
       <c r="F42" s="6">
         <v>-4.3115999999999999E-9</v>
       </c>
-      <c r="G42" s="26">
+      <c r="G42" s="28">
         <f t="shared" si="8"/>
         <v>8650.9047798411557</v>
       </c>
-      <c r="H42" s="26">
+      <c r="H42" s="28">
         <f t="shared" si="9"/>
         <v>7619.0697133638951</v>
       </c>
-      <c r="I42" s="26">
+      <c r="I42" s="28">
         <f t="shared" si="10"/>
         <v>8650.9047798411557</v>
       </c>
-      <c r="J42" s="26">
+      <c r="J42" s="28">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="K42" s="27">
+      <c r="K42" s="29">
         <f t="shared" si="12"/>
         <v>-2197.252795098329</v>
       </c>
-      <c r="L42" s="12">
+      <c r="L42" s="13">
         <f t="shared" si="13"/>
         <v>-129011.72501209957</v>
       </c>
-      <c r="M42" s="26">
+      <c r="M42" s="28">
         <f t="shared" si="14"/>
         <v>-563.2813707132068</v>
       </c>
-      <c r="N42" s="17">
+      <c r="N42" s="18">
         <f t="shared" si="15"/>
         <v>-33569.168730458747</v>
       </c>
-      <c r="O42" s="26">
+      <c r="O42" s="28">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P42" s="26">
+      <c r="P42" s="28">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="17">
+      <c r="Q42" s="18">
         <f t="shared" si="18"/>
         <v>-6573.5594953412228</v>
       </c>
-      <c r="R42" s="12">
+      <c r="R42" s="13">
         <f t="shared" si="19"/>
         <v>-385966.6269878092</v>
       </c>
-      <c r="S42" s="17">
+      <c r="S42" s="18">
         <f t="shared" si="20"/>
         <v>-4423.5983097863354</v>
       </c>
-      <c r="T42" s="17">
+      <c r="T42" s="18">
         <f t="shared" si="21"/>
         <v>-263627.60385447973</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="G44" s="12">
+      <c r="U42" s="18">
+        <f t="shared" si="22"/>
+        <v>-4532.9649455350991</v>
+      </c>
+      <c r="V42" s="13">
+        <f t="shared" si="23"/>
+        <v>-270145.38917424687</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="G44" s="13">
         <v>823.15</v>
       </c>
-      <c r="I44" s="12">
+      <c r="I44" s="13">
         <v>823.15</v>
       </c>
-      <c r="K44" s="16">
+      <c r="K44" s="17">
         <v>462.80265594843968</v>
       </c>
-      <c r="M44" s="12">
+      <c r="M44" s="13">
         <v>518.15</v>
       </c>
-      <c r="O44" s="12">
+      <c r="O44" s="13">
         <v>537.15</v>
       </c>
-      <c r="Q44" s="12">
+      <c r="Q44" s="13">
         <v>313.14999999999998</v>
       </c>
-      <c r="S44" s="18">
+      <c r="S44" s="19">
         <v>386.89199657598499</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U44" s="13">
+        <v>383.15</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="K45" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
         <v>66</v>
       </c>
@@ -3754,26 +3890,48 @@
         <v>537.15</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="J47" t="s">
         <v>36</v>
       </c>
-      <c r="K47" s="30">
+      <c r="K47" s="32">
         <f>SUM(H36:H42)+SUM(J36:J42)+SUM(L36:L42)-SUM(N36:N42)</f>
         <v>8.8475644588470459E-9</v>
       </c>
-      <c r="L47" s="31" t="s">
+      <c r="L47" s="33" t="s">
         <v>70</v>
       </c>
       <c r="R47" t="s">
         <v>36</v>
       </c>
-      <c r="S47" s="29">
+      <c r="S47" s="31">
         <f xml:space="preserve"> SUM(P36:P42)+SUM(R36:R42)-SUM(T36:T42)-SUM(L36:L42)</f>
         <v>0</v>
       </c>
-      <c r="T47" s="31" t="s">
+      <c r="T47" s="33" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="20:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="20:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T50" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="U50" s="35">
+        <f>-SUM(V36:V42)+SUM(T36:T42)</f>
+        <v>187673.20739538036</v>
+      </c>
+      <c r="V50" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="20:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="U51" s="25">
+        <f>U50/1000</f>
+        <v>187.67320739538036</v>
+      </c>
+      <c r="V51" s="25" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3787,7 +3945,7 @@
     <mergeCell ref="J14:K14"/>
     <mergeCell ref="J15:K15"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3797,7 +3955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396921D4-C53B-419B-AEB5-5ACF973E6955}">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
@@ -4079,10 +4237,10 @@
       <c r="F12" s="4">
         <v>0.3</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="20"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
@@ -4097,28 +4255,28 @@
       <c r="F13" s="4">
         <v>0.98</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="13"/>
+      <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J14" s="13" t="s">
+      <c r="J14" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="13"/>
+      <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J15" s="13" t="s">
+      <c r="J15" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="K15" s="13"/>
+      <c r="K15" s="14"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="15"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C18" s="8" t="s">
@@ -4157,10 +4315,10 @@
       <c r="N18" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="O18" s="21" t="s">
+      <c r="O18" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="P18" s="21" t="s">
+      <c r="P18" s="22" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4171,53 +4329,53 @@
       <c r="C19" s="3">
         <v>148.5651089461</v>
       </c>
-      <c r="D19" s="12">
-        <v>0</v>
-      </c>
-      <c r="E19" s="17">
+      <c r="D19" s="13">
+        <v>0</v>
+      </c>
+      <c r="E19" s="18">
         <f xml:space="preserve"> C19+D19</f>
         <v>148.5651089461</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="13">
         <f>M19</f>
         <v>205.15645619919093</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="13">
         <f>E19/(1-$C$29*(1-$C$13))</f>
         <v>353.72156514529092</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="13">
         <f>G19*(1-$C$13)</f>
         <v>205.15850778426875</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="13">
         <f>H19</f>
         <v>205.15850778426875</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="13">
         <f>H19</f>
         <v>205.15850778426875</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="13">
         <f>I19*D4</f>
         <v>0</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="13">
         <f>J19-K19</f>
         <v>205.15850778426875</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="13">
         <f>$C$29*L19</f>
         <v>205.15645619919093</v>
       </c>
-      <c r="N19" s="12">
+      <c r="N19" s="13">
         <f>L19-M19</f>
         <v>2.0515850778224376E-3</v>
       </c>
-      <c r="O19" s="12">
+      <c r="O19" s="13">
         <v>-1</v>
       </c>
-      <c r="P19" s="12">
+      <c r="P19" s="13">
         <v>-1</v>
       </c>
     </row>
@@ -4229,53 +4387,53 @@
         <f>75.4233392836</f>
         <v>75.423339283600001</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="24">
         <v>57.704789740044859</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="18">
         <f t="shared" ref="E20:E25" si="0" xml:space="preserve"> C20+D20</f>
         <v>133.12812902364487</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="13">
         <f t="shared" ref="F20:F25" si="1">M20</f>
         <v>496.64923395634906</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="23">
         <f>(G21-G19*C12)/(C12+1)</f>
         <v>619.93447313519323</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="13">
         <f>G20+$N$29*O20+$N$30*P20</f>
         <v>501.41766834765679</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="13">
         <f t="shared" ref="I20:I25" si="2">H20</f>
         <v>501.41766834765679</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="13">
         <f t="shared" ref="J20:J25" si="3">H20</f>
         <v>501.41766834765679</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20" s="13">
         <f t="shared" ref="K20:K25" si="4">I20*D5</f>
         <v>4.7634678493027396</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="13">
         <f t="shared" ref="L20:L25" si="5">J20-K20</f>
         <v>496.65420049835404</v>
       </c>
-      <c r="M20" s="12">
+      <c r="M20" s="13">
         <f t="shared" ref="M20:M25" si="6">$C$29*L20</f>
         <v>496.64923395634906</v>
       </c>
-      <c r="N20" s="12">
+      <c r="N20" s="13">
         <f t="shared" ref="N20:N25" si="7">L20-M20</f>
         <v>4.9665420049791464E-3</v>
       </c>
-      <c r="O20" s="12">
-        <v>0</v>
-      </c>
-      <c r="P20" s="12">
+      <c r="O20" s="13">
+        <v>0</v>
+      </c>
+      <c r="P20" s="13">
         <v>-1</v>
       </c>
     </row>
@@ -4286,52 +4444,52 @@
       <c r="C21" s="3">
         <v>696.71788031999995</v>
       </c>
-      <c r="D21" s="12">
-        <v>0</v>
-      </c>
-      <c r="E21" s="17">
+      <c r="D21" s="13">
+        <v>0</v>
+      </c>
+      <c r="E21" s="18">
         <f t="shared" si="0"/>
         <v>696.71788031999995</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="13">
         <f t="shared" si="1"/>
         <v>2888.1971766314032</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="24">
         <v>3540.9025879766455</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="13">
         <f>G21+$N$29*O21+$N$30*P21</f>
         <v>2888.2260588919921</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="13">
         <f t="shared" si="2"/>
         <v>2888.2260588919921</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="13">
         <f t="shared" si="3"/>
         <v>2888.2260588919921</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="13">
         <f t="shared" si="5"/>
         <v>2888.2260588919921</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="13">
         <f t="shared" si="6"/>
         <v>2888.1971766314032</v>
       </c>
-      <c r="N21" s="12">
+      <c r="N21" s="13">
         <f t="shared" si="7"/>
         <v>2.8882260588943609E-2</v>
       </c>
-      <c r="O21" s="12">
+      <c r="O21" s="13">
         <v>-2</v>
       </c>
-      <c r="P21" s="12">
+      <c r="P21" s="13">
         <v>-1</v>
       </c>
     </row>
@@ -4342,53 +4500,53 @@
       <c r="C22" s="3">
         <v>24.788823020500001</v>
       </c>
-      <c r="D22" s="12">
-        <v>0</v>
-      </c>
-      <c r="E22" s="17">
+      <c r="D22" s="13">
+        <v>0</v>
+      </c>
+      <c r="E22" s="18">
         <f t="shared" si="0"/>
         <v>24.788823020500001</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="13">
         <f t="shared" si="1"/>
         <v>2478857.513238261</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="13">
         <f xml:space="preserve"> C22/(1-$C$29)</f>
         <v>2478882.3020612816</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="13">
         <f>G22</f>
         <v>2478882.3020612816</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="13">
         <f t="shared" si="2"/>
         <v>2478882.3020612816</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="13">
         <f t="shared" si="3"/>
         <v>2478882.3020612816</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K22" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="13">
         <f t="shared" si="5"/>
         <v>2478882.3020612816</v>
       </c>
-      <c r="M22" s="12">
+      <c r="M22" s="13">
         <f t="shared" si="6"/>
         <v>2478857.513238261</v>
       </c>
-      <c r="N22" s="12">
+      <c r="N22" s="13">
         <f t="shared" si="7"/>
         <v>24.788823020644486</v>
       </c>
-      <c r="O22" s="12">
-        <v>0</v>
-      </c>
-      <c r="P22" s="12">
+      <c r="O22" s="13">
+        <v>0</v>
+      </c>
+      <c r="P22" s="13">
         <v>0</v>
       </c>
     </row>
@@ -4399,52 +4557,52 @@
       <c r="C23" s="3">
         <v>0</v>
       </c>
-      <c r="D23" s="12">
-        <v>0</v>
-      </c>
-      <c r="E23" s="17">
+      <c r="D23" s="13">
+        <v>0</v>
+      </c>
+      <c r="E23" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="13">
         <f t="shared" si="1"/>
         <v>36.337839961894169</v>
       </c>
-      <c r="G23" s="23">
+      <c r="G23" s="24">
         <v>35.73849905083803</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="13">
         <f>G23+$N$29*O23+$N$30*P23</f>
         <v>302.81836119939663</v>
       </c>
-      <c r="I23" s="12">
+      <c r="I23" s="13">
         <f t="shared" si="2"/>
         <v>302.81836119939663</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="13">
         <f t="shared" si="3"/>
         <v>302.81836119939663</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="13">
         <f t="shared" si="4"/>
         <v>266.48015785546903</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="13">
         <f t="shared" si="5"/>
         <v>36.338203343927603</v>
       </c>
-      <c r="M23" s="12">
+      <c r="M23" s="13">
         <f t="shared" si="6"/>
         <v>36.337839961894169</v>
       </c>
-      <c r="N23" s="12">
+      <c r="N23" s="13">
         <f t="shared" si="7"/>
         <v>3.6338203343433406E-4</v>
       </c>
-      <c r="O23" s="12">
+      <c r="O23" s="13">
         <v>1</v>
       </c>
-      <c r="P23" s="12">
+      <c r="P23" s="13">
         <v>0</v>
       </c>
     </row>
@@ -4455,53 +4613,53 @@
       <c r="C24" s="3">
         <v>1.7690102429999999</v>
       </c>
-      <c r="D24" s="12">
-        <v>0</v>
-      </c>
-      <c r="E24" s="17">
+      <c r="D24" s="13">
+        <v>0</v>
+      </c>
+      <c r="E24" s="18">
         <f t="shared" si="0"/>
         <v>1.7690102429999999</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="13">
         <f t="shared" si="1"/>
         <v>6.3307657297225708</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="13">
         <f>(C24+D24+$C$29*(1-D9)*(P24*N30))/(1-$C$29*(1-D9))</f>
         <v>8.0997759727225773</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="13">
         <f>G24+$N$29*O24+$N$30*P24</f>
         <v>126.61658076025903</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="13">
         <f t="shared" si="2"/>
         <v>126.61658076025903</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="13">
         <f t="shared" si="3"/>
         <v>126.61658076025903</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="13">
         <f t="shared" si="4"/>
         <v>120.28575172224608</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="13">
         <f t="shared" si="5"/>
         <v>6.3308290380129506</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M24" s="13">
         <f t="shared" si="6"/>
         <v>6.3307657297225708</v>
       </c>
-      <c r="N24" s="12">
+      <c r="N24" s="13">
         <f t="shared" si="7"/>
         <v>6.3308290379815446E-5</v>
       </c>
-      <c r="O24" s="12">
-        <v>0</v>
-      </c>
-      <c r="P24" s="12">
+      <c r="O24" s="13">
+        <v>0</v>
+      </c>
+      <c r="P24" s="13">
         <v>1</v>
       </c>
     </row>
@@ -4512,53 +4670,53 @@
       <c r="C25" s="3">
         <v>3.1706106663</v>
       </c>
-      <c r="D25" s="12">
-        <v>0</v>
-      </c>
-      <c r="E25" s="17">
+      <c r="D25" s="13">
+        <v>0</v>
+      </c>
+      <c r="E25" s="18">
         <f t="shared" si="0"/>
         <v>3.1706106663</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="13">
         <f t="shared" si="1"/>
         <v>317057.89602077665</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="13">
         <f>E25/(1-$C$29)</f>
         <v>317061.06663144293</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="13">
         <f>G25</f>
         <v>317061.06663144293</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="13">
         <f t="shared" si="2"/>
         <v>317061.06663144293</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="13">
         <f t="shared" si="3"/>
         <v>317061.06663144293</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="13">
         <f t="shared" si="5"/>
         <v>317061.06663144293</v>
       </c>
-      <c r="M25" s="12">
+      <c r="M25" s="13">
         <f t="shared" si="6"/>
         <v>317057.89602077665</v>
       </c>
-      <c r="N25" s="12">
+      <c r="N25" s="13">
         <f t="shared" si="7"/>
         <v>3.1706106662750244</v>
       </c>
-      <c r="O25" s="12">
-        <v>0</v>
-      </c>
-      <c r="P25" s="12">
+      <c r="O25" s="13">
+        <v>0</v>
+      </c>
+      <c r="P25" s="13">
         <v>0</v>
       </c>
     </row>
@@ -4572,45 +4730,45 @@
       <c r="B27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="13">
         <f>K4</f>
         <v>823.15</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="13">
         <f>K5</f>
         <v>823.15</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="13">
         <f>K4</f>
         <v>823.15</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12">
+      <c r="F27" s="13"/>
+      <c r="G27" s="13">
         <f>K6</f>
         <v>518.15</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="13">
         <f>K7</f>
         <v>537.15</v>
       </c>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12">
+      <c r="I27" s="13"/>
+      <c r="J27" s="13">
         <f>K8</f>
         <v>383.15</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K27" s="13">
         <f>K9</f>
         <v>313.14999999999998</v>
       </c>
-      <c r="L27" s="12">
+      <c r="L27" s="13">
         <f>K9</f>
         <v>313.14999999999998</v>
       </c>
-      <c r="M27" s="12">
+      <c r="M27" s="13">
         <f>K9</f>
         <v>313.14999999999998</v>
       </c>
-      <c r="N27" s="12">
+      <c r="N27" s="13">
         <f>K9</f>
         <v>313.14999999999998</v>
       </c>
@@ -4638,10 +4796,10 @@
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="17">
         <v>0.99999000000000005</v>
       </c>
       <c r="E29" t="s">
@@ -4661,10 +4819,10 @@
       <c r="J29" t="s">
         <v>37</v>
       </c>
-      <c r="M29" s="19" t="s">
+      <c r="M29" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="N29" s="12">
+      <c r="N29" s="13">
         <f>-G23+F12*(G23+G20+G19)</f>
         <v>267.07986214855862</v>
       </c>
@@ -4680,23 +4838,23 @@
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="M30" s="19" t="s">
+      <c r="M30" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="N30" s="12">
+      <c r="N30" s="13">
         <f>N29-G19*C13</f>
         <v>118.51680478753644</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="26">
         <f xml:space="preserve"> SUM(M19:M25)/SUM(E19:E25)</f>
         <v>2776.9449644134215</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="13" t="s">
         <v>52</v>
       </c>
     </row>
